--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1047647.323971627</v>
+        <v>-1048325.50527916</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311885.1970183194</v>
+        <v>311885.1970183193</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.451805854</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>122.711166374057</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>79.87637266798694</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.38701225037775</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>-1.243449787580175e-13</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>5.758864737814442</v>
       </c>
       <c r="T11" t="n">
-        <v>28.20762267428242</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>55.93811835407739</v>
       </c>
       <c r="V11" t="n">
         <v>122.711166374057</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16.5746120260279</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.73635203332428</v>
+        <v>122.711166374057</v>
       </c>
       <c r="U12" t="n">
-        <v>43.01612417394765</v>
+        <v>43.01612417394754</v>
       </c>
       <c r="V12" t="n">
-        <v>46.43735102801259</v>
+        <v>46.43735102801247</v>
       </c>
       <c r="W12" t="n">
-        <v>72.49301368962193</v>
+        <v>72.49301368962182</v>
       </c>
       <c r="X12" t="n">
-        <v>89.71475101564266</v>
+        <v>23.10134455208083</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.17271624663596</v>
+        <v>29.17271624663584</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.003274493278807</v>
+        <v>9.003274493278694</v>
       </c>
       <c r="S13" t="n">
-        <v>41.14309824393261</v>
+        <v>41.14309824393249</v>
       </c>
       <c r="T13" t="n">
-        <v>29.52954681521118</v>
+        <v>29.52954681521107</v>
       </c>
       <c r="U13" t="n">
-        <v>94.44472612269439</v>
+        <v>94.44472612269428</v>
       </c>
       <c r="V13" t="n">
-        <v>50.89744529706024</v>
+        <v>50.89744529706013</v>
       </c>
       <c r="W13" t="n">
-        <v>96.09913720194567</v>
+        <v>96.09913720194555</v>
       </c>
       <c r="X13" t="n">
-        <v>27.70788552085287</v>
+        <v>27.70788552085276</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.92970292677876</v>
+        <v>22.92970292677865</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>122.711166374057</v>
       </c>
-      <c r="C14" t="n">
-        <v>28.6346016873728</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>52.14587698819185</v>
       </c>
       <c r="I14" t="n">
-        <v>46.38701225037795</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.06238140451862</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.93811835407755</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>122.711166374057</v>
-      </c>
-      <c r="W14" t="n">
-        <v>122.711166374057</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,22 +1692,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>122.711166374057</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>11.38249396128616</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>118.5494263667599</v>
       </c>
       <c r="T15" t="n">
-        <v>20.73635203332437</v>
+        <v>20.73635203332431</v>
       </c>
       <c r="U15" t="n">
-        <v>43.01612417394774</v>
+        <v>43.01612417394768</v>
       </c>
       <c r="V15" t="n">
-        <v>46.43735102801267</v>
+        <v>46.43735102801261</v>
       </c>
       <c r="W15" t="n">
-        <v>72.49301368962202</v>
+        <v>72.49301368962196</v>
       </c>
       <c r="X15" t="n">
-        <v>23.10134455208103</v>
+        <v>23.10134455208097</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.17271624663604</v>
+        <v>29.17271624663599</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.003274493278893</v>
+        <v>9.003274493278836</v>
       </c>
       <c r="S16" t="n">
-        <v>41.14309824393269</v>
+        <v>41.14309824393263</v>
       </c>
       <c r="T16" t="n">
-        <v>29.52954681521127</v>
+        <v>29.52954681521121</v>
       </c>
       <c r="U16" t="n">
-        <v>94.44472612269448</v>
+        <v>94.44472612269442</v>
       </c>
       <c r="V16" t="n">
-        <v>50.89744529706033</v>
+        <v>50.89744529706027</v>
       </c>
       <c r="W16" t="n">
-        <v>96.09913720194575</v>
+        <v>96.09913720194569</v>
       </c>
       <c r="X16" t="n">
-        <v>27.70788552085295</v>
+        <v>27.7078855208529</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.92970292677884</v>
+        <v>22.92970292677879</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>29.55915463258617</v>
       </c>
       <c r="D17" t="n">
-        <v>17.12581689363464</v>
+        <v>17.12581689363378</v>
       </c>
       <c r="E17" t="n">
         <v>50.83256931304351</v>
@@ -1904,7 +1904,7 @@
         <v>0.2334408605593694</v>
       </c>
       <c r="W17" t="n">
-        <v>17.25012107717412</v>
+        <v>17.25012107717424</v>
       </c>
       <c r="X17" t="n">
         <v>39.13637154611348</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>51.93601990319846</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>122.711166374057</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>122.711166374057</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>56.1479754390709</v>
       </c>
       <c r="W18" t="n">
-        <v>71.69220940765449</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.9170629367958895</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>122.711166374057</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9170629367958895</v>
+        <v>122.711166374057</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>122.711166374057</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2439,28 +2439,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.141010788491236</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>101.9429845537781</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>108.0839953422694</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>122.711166374057</v>
       </c>
-      <c r="U24" t="n">
-        <v>122.711166374057</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>14.35336722562559</v>
       </c>
       <c r="T26" t="n">
-        <v>9.498608495389474</v>
+        <v>9.498608495389476</v>
       </c>
       <c r="U26" t="n">
         <v>37.22910417518457</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7833439066279</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>107.1669324054735</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>2.027337854431339</v>
       </c>
       <c r="U27" t="n">
-        <v>24.30710999505471</v>
+        <v>92.94161256705206</v>
       </c>
       <c r="V27" t="n">
         <v>27.72833684911964</v>
@@ -2700,7 +2700,7 @@
         <v>4.392330373188003</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46370206774301</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2874,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.007221312683518021</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,19 +2913,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T30" t="n">
         <v>2.027337854431253</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3476085792414</v>
+        <v>24.30710999505462</v>
       </c>
       <c r="V30" t="n">
         <v>27.72833684911956</v>
@@ -2937,7 +2937,7 @@
         <v>4.392330373187917</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.46370206774293</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.1666563115507</v>
+        <v>161.1666563115508</v>
       </c>
       <c r="C32" t="n">
         <v>137.2849133148962</v>
@@ -3047,7 +3047,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67799807148492</v>
+        <v>27.67799807148495</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35336722562559</v>
+        <v>14.35336722562561</v>
       </c>
       <c r="T32" t="n">
-        <v>9.498608495389474</v>
+        <v>9.498608495389503</v>
       </c>
       <c r="U32" t="n">
-        <v>37.22910417518457</v>
+        <v>37.2291041751846</v>
       </c>
       <c r="V32" t="n">
         <v>107.9591995428694</v>
@@ -3092,7 +3092,7 @@
         <v>124.9758797594843</v>
       </c>
       <c r="X32" t="n">
-        <v>146.8621302284235</v>
+        <v>146.8621302284236</v>
       </c>
       <c r="Y32" t="n">
         <v>169.3649833521673</v>
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>3.448649500945122</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>148.7388978542471</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.141010788491236</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.027337854431339</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U33" t="n">
-        <v>24.30710999505471</v>
+        <v>171.2844186874905</v>
       </c>
       <c r="V33" t="n">
-        <v>27.72833684911964</v>
+        <v>27.72833684911967</v>
       </c>
       <c r="W33" t="n">
-        <v>53.78399951072899</v>
+        <v>53.78399951072902</v>
       </c>
       <c r="X33" t="n">
-        <v>4.392330373188003</v>
+        <v>4.392330373188031</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46370206774301</v>
+        <v>10.46370206774304</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43408406503966</v>
+        <v>22.43408406503969</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82053263631824</v>
+        <v>10.82053263631827</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73571194380145</v>
+        <v>75.73571194380148</v>
       </c>
       <c r="V34" t="n">
-        <v>32.1884311181673</v>
+        <v>32.18843111816733</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39012302305272</v>
+        <v>77.39012302305275</v>
       </c>
       <c r="X34" t="n">
-        <v>8.998871341959926</v>
+        <v>8.998871341959955</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.220688747885816</v>
+        <v>4.220688747885845</v>
       </c>
     </row>
     <row r="35">
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>78.4459641986756</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>102.5079598421704</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>125.6804106468432</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.3654897447971</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3588,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>94.8545790184006</v>
+        <v>18.3933727880673</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>175.0436226563812</v>
       </c>
     </row>
     <row r="40">
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.551106103699667</v>
+        <v>9.551106103699681</v>
       </c>
       <c r="V41" t="n">
         <v>80.28120147138452</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,19 +3828,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7388978542471</v>
+        <v>33.50658867912165</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U42" t="n">
-        <v>38.15738505680933</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0.05033877763474948</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.551106103699667</v>
+        <v>9.551106103699681</v>
       </c>
       <c r="V44" t="n">
         <v>80.28120147138452</v>
@@ -4056,19 +4056,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>86.16044301415111</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,19 +4098,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.141010788491219</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>162.8936548277928</v>
       </c>
       <c r="V45" t="n">
         <v>0.05033877763474948</v>
@@ -4119,7 +4119,7 @@
         <v>26.1060014392441</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.450771130171</v>
+        <v>304.5738074498152</v>
       </c>
       <c r="C11" t="n">
-        <v>214.450771130171</v>
+        <v>304.5738074498152</v>
       </c>
       <c r="D11" t="n">
-        <v>90.5000980250629</v>
+        <v>304.5738074498152</v>
       </c>
       <c r="E11" t="n">
-        <v>90.5000980250629</v>
+        <v>180.6231343447072</v>
       </c>
       <c r="F11" t="n">
-        <v>90.5000980250629</v>
+        <v>180.6231343447072</v>
       </c>
       <c r="G11" t="n">
-        <v>9.816893309924563</v>
+        <v>180.6231343447072</v>
       </c>
       <c r="H11" t="n">
-        <v>9.816893309924563</v>
+        <v>56.67246123959906</v>
       </c>
       <c r="I11" t="n">
         <v>9.816893309924563</v>
@@ -5042,49 +5042,49 @@
         <v>9.816893309924563</v>
       </c>
       <c r="K11" t="n">
-        <v>9.816893309924563</v>
+        <v>131.300948020241</v>
       </c>
       <c r="L11" t="n">
-        <v>58.20402256113623</v>
+        <v>179.6880772714527</v>
       </c>
       <c r="M11" t="n">
-        <v>179.6880772714527</v>
+        <v>262.4040414496158</v>
       </c>
       <c r="N11" t="n">
-        <v>256.9000362099022</v>
+        <v>339.6160003880653</v>
       </c>
       <c r="O11" t="n">
-        <v>378.3840909202186</v>
+        <v>375.6157049924605</v>
       </c>
       <c r="P11" t="n">
-        <v>490.8446654962281</v>
+        <v>386.2495795577956</v>
       </c>
       <c r="Q11" t="n">
         <v>490.8446654962281</v>
       </c>
       <c r="R11" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962282</v>
       </c>
       <c r="S11" t="n">
-        <v>490.8446654962281</v>
+        <v>485.0276304075268</v>
       </c>
       <c r="T11" t="n">
-        <v>462.3521173403873</v>
+        <v>485.0276304075268</v>
       </c>
       <c r="U11" t="n">
-        <v>462.3521173403873</v>
+        <v>428.5244805549233</v>
       </c>
       <c r="V11" t="n">
-        <v>338.4014442352791</v>
+        <v>304.5738074498152</v>
       </c>
       <c r="W11" t="n">
-        <v>338.4014442352791</v>
+        <v>304.5738074498152</v>
       </c>
       <c r="X11" t="n">
-        <v>338.4014442352791</v>
+        <v>304.5738074498152</v>
       </c>
       <c r="Y11" t="n">
-        <v>214.450771130171</v>
+        <v>304.5738074498152</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>186.2281925798796</v>
+        <v>150.5095987645558</v>
       </c>
       <c r="C12" t="n">
-        <v>186.2281925798796</v>
+        <v>150.5095987645558</v>
       </c>
       <c r="D12" t="n">
-        <v>62.27751947477149</v>
+        <v>26.5589256594477</v>
       </c>
       <c r="E12" t="n">
-        <v>62.27751947477149</v>
+        <v>26.5589256594477</v>
       </c>
       <c r="F12" t="n">
-        <v>62.27751947477149</v>
+        <v>26.5589256594477</v>
       </c>
       <c r="G12" t="n">
-        <v>62.27751947477149</v>
+        <v>26.5589256594477</v>
       </c>
       <c r="H12" t="n">
-        <v>62.27751947477149</v>
+        <v>26.5589256594477</v>
       </c>
       <c r="I12" t="n">
-        <v>62.27751947477149</v>
+        <v>9.816893309924563</v>
       </c>
       <c r="J12" t="n">
         <v>9.816893309924563</v>
       </c>
       <c r="K12" t="n">
-        <v>9.816893309924563</v>
+        <v>48.69249843149191</v>
       </c>
       <c r="L12" t="n">
-        <v>128.376484278129</v>
+        <v>48.69249843149191</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1726257573492</v>
+        <v>170.1765531418084</v>
       </c>
       <c r="N12" t="n">
-        <v>284.6566804676656</v>
+        <v>291.6606078521248</v>
       </c>
       <c r="O12" t="n">
-        <v>406.1407351779821</v>
+        <v>413.1446625624413</v>
       </c>
       <c r="P12" t="n">
         <v>490.8446654962281</v>
@@ -5148,22 +5148,22 @@
         <v>490.8446654962281</v>
       </c>
       <c r="T12" t="n">
-        <v>469.8988553615571</v>
+        <v>366.89399239112</v>
       </c>
       <c r="U12" t="n">
-        <v>426.4482248828222</v>
+        <v>323.4433619123851</v>
       </c>
       <c r="V12" t="n">
-        <v>379.5418097030115</v>
+        <v>276.5369467325745</v>
       </c>
       <c r="W12" t="n">
-        <v>306.316543349858</v>
+        <v>203.3116803794211</v>
       </c>
       <c r="X12" t="n">
-        <v>215.6955827279967</v>
+        <v>179.9769889126728</v>
       </c>
       <c r="Y12" t="n">
-        <v>186.2281925798796</v>
+        <v>150.5095987645558</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.816893309924563</v>
+        <v>26.24559604012202</v>
       </c>
       <c r="C13" t="n">
-        <v>9.816893309924563</v>
+        <v>53.72244106638527</v>
       </c>
       <c r="D13" t="n">
-        <v>9.816893309924563</v>
+        <v>53.72244106638527</v>
       </c>
       <c r="E13" t="n">
-        <v>9.816893309924563</v>
+        <v>105.7325154547984</v>
       </c>
       <c r="F13" t="n">
-        <v>18.28458942952636</v>
+        <v>105.7325154547984</v>
       </c>
       <c r="G13" t="n">
-        <v>18.28458942952636</v>
+        <v>105.7325154547984</v>
       </c>
       <c r="H13" t="n">
-        <v>46.43000081009148</v>
+        <v>133.8779268353636</v>
       </c>
       <c r="I13" t="n">
-        <v>75.63745296972672</v>
+        <v>133.8779268353636</v>
       </c>
       <c r="J13" t="n">
-        <v>75.63745296972672</v>
+        <v>207.4450327451294</v>
       </c>
       <c r="K13" t="n">
-        <v>75.63745296972672</v>
+        <v>328.9290874554458</v>
       </c>
       <c r="L13" t="n">
-        <v>197.1215076800432</v>
+        <v>328.9290874554458</v>
       </c>
       <c r="M13" t="n">
-        <v>197.1215076800432</v>
+        <v>328.9290874554458</v>
       </c>
       <c r="N13" t="n">
-        <v>197.1215076800432</v>
+        <v>328.9290874554458</v>
       </c>
       <c r="O13" t="n">
-        <v>197.1215076800432</v>
+        <v>328.9290874554458</v>
       </c>
       <c r="P13" t="n">
-        <v>318.6055623903596</v>
+        <v>328.9290874554458</v>
       </c>
       <c r="Q13" t="n">
-        <v>385.3268090894746</v>
+        <v>385.3268090894737</v>
       </c>
       <c r="R13" t="n">
-        <v>376.232592429597</v>
+        <v>376.2325924295962</v>
       </c>
       <c r="S13" t="n">
-        <v>334.6739073347156</v>
+        <v>334.6739073347149</v>
       </c>
       <c r="T13" t="n">
-        <v>304.8460822688457</v>
+        <v>304.8460822688451</v>
       </c>
       <c r="U13" t="n">
-        <v>209.4473690135989</v>
+        <v>209.4473690135984</v>
       </c>
       <c r="V13" t="n">
-        <v>158.0358081074774</v>
+        <v>158.035808107477</v>
       </c>
       <c r="W13" t="n">
-        <v>60.96597254995651</v>
+        <v>60.96597254995628</v>
       </c>
       <c r="X13" t="n">
-        <v>32.97820939757987</v>
+        <v>32.97820939757976</v>
       </c>
       <c r="Y13" t="n">
         <v>9.816893309924563</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>85.59630132785463</v>
+        <v>310.3908425385164</v>
       </c>
       <c r="C14" t="n">
-        <v>56.67246123959927</v>
+        <v>310.3908425385164</v>
       </c>
       <c r="D14" t="n">
-        <v>56.67246123959927</v>
+        <v>310.3908425385164</v>
       </c>
       <c r="E14" t="n">
-        <v>56.67246123959927</v>
+        <v>186.4401694334083</v>
       </c>
       <c r="F14" t="n">
-        <v>56.67246123959927</v>
+        <v>186.4401694334083</v>
       </c>
       <c r="G14" t="n">
-        <v>56.67246123959927</v>
+        <v>62.48949632830018</v>
       </c>
       <c r="H14" t="n">
-        <v>56.67246123959927</v>
+        <v>9.816893309924563</v>
       </c>
       <c r="I14" t="n">
         <v>9.816893309924563</v>
@@ -5294,7 +5294,7 @@
         <v>375.6157049924605</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2495795577959</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="Q14" t="n">
         <v>490.8446654962281</v>
@@ -5303,25 +5303,25 @@
         <v>490.8446654962281</v>
       </c>
       <c r="S14" t="n">
-        <v>457.448320643179</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="T14" t="n">
-        <v>457.448320643179</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="U14" t="n">
-        <v>457.448320643179</v>
+        <v>434.3415156436246</v>
       </c>
       <c r="V14" t="n">
-        <v>333.4976475380709</v>
+        <v>434.3415156436246</v>
       </c>
       <c r="W14" t="n">
-        <v>209.5469744329628</v>
+        <v>434.3415156436246</v>
       </c>
       <c r="X14" t="n">
-        <v>209.5469744329628</v>
+        <v>434.3415156436246</v>
       </c>
       <c r="Y14" t="n">
-        <v>209.5469744329628</v>
+        <v>310.3908425385164</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>253.5144617349919</v>
+        <v>133.7675664150327</v>
       </c>
       <c r="C15" t="n">
-        <v>253.5144617349919</v>
+        <v>133.7675664150327</v>
       </c>
       <c r="D15" t="n">
-        <v>253.5144617349919</v>
+        <v>133.7675664150327</v>
       </c>
       <c r="E15" t="n">
-        <v>129.5637886298838</v>
+        <v>133.7675664150327</v>
       </c>
       <c r="F15" t="n">
-        <v>129.5637886298838</v>
+        <v>133.7675664150327</v>
       </c>
       <c r="G15" t="n">
-        <v>129.5637886298838</v>
+        <v>9.816893309924563</v>
       </c>
       <c r="H15" t="n">
-        <v>129.5637886298838</v>
+        <v>9.816893309924563</v>
       </c>
       <c r="I15" t="n">
-        <v>21.31436195768836</v>
+        <v>9.816893309924563</v>
       </c>
       <c r="J15" t="n">
         <v>9.816893309924563</v>
       </c>
       <c r="K15" t="n">
-        <v>9.816893309924563</v>
+        <v>48.69249843149191</v>
       </c>
       <c r="L15" t="n">
-        <v>128.376484278129</v>
+        <v>167.2520893996964</v>
       </c>
       <c r="M15" t="n">
-        <v>249.8605389884455</v>
+        <v>288.7361441100128</v>
       </c>
       <c r="N15" t="n">
-        <v>371.344593698762</v>
+        <v>410.2201988203292</v>
       </c>
       <c r="O15" t="n">
         <v>490.8446654962281</v>
@@ -5382,25 +5382,25 @@
         <v>490.8446654962281</v>
       </c>
       <c r="S15" t="n">
-        <v>490.8446654962281</v>
+        <v>371.0977701762686</v>
       </c>
       <c r="T15" t="n">
-        <v>469.898855361557</v>
+        <v>350.1519600415976</v>
       </c>
       <c r="U15" t="n">
-        <v>426.4482248828219</v>
+        <v>306.7013295628626</v>
       </c>
       <c r="V15" t="n">
-        <v>379.5418097030112</v>
+        <v>259.7949143830518</v>
       </c>
       <c r="W15" t="n">
-        <v>306.3165433498576</v>
+        <v>186.5696480298983</v>
       </c>
       <c r="X15" t="n">
-        <v>282.9818518831091</v>
+        <v>163.2349565631498</v>
       </c>
       <c r="Y15" t="n">
-        <v>253.5144617349919</v>
+        <v>133.7675664150327</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.816893309924563</v>
+        <v>115.3347497166779</v>
       </c>
       <c r="C16" t="n">
-        <v>37.29373833618762</v>
+        <v>115.3347497166779</v>
       </c>
       <c r="D16" t="n">
-        <v>37.29373833618762</v>
+        <v>115.3347497166779</v>
       </c>
       <c r="E16" t="n">
-        <v>37.29373833618762</v>
+        <v>115.3347497166779</v>
       </c>
       <c r="F16" t="n">
-        <v>37.29373833618762</v>
+        <v>115.3347497166779</v>
       </c>
       <c r="G16" t="n">
-        <v>62.55416174326265</v>
+        <v>140.595173123753</v>
       </c>
       <c r="H16" t="n">
-        <v>62.55416174326265</v>
+        <v>140.595173123753</v>
       </c>
       <c r="I16" t="n">
-        <v>91.76161390289781</v>
+        <v>140.595173123753</v>
       </c>
       <c r="J16" t="n">
-        <v>91.76161390289781</v>
+        <v>140.595173123753</v>
       </c>
       <c r="K16" t="n">
-        <v>213.2456686132143</v>
+        <v>262.0792278340695</v>
       </c>
       <c r="L16" t="n">
-        <v>213.2456686132143</v>
+        <v>262.0792278340695</v>
       </c>
       <c r="M16" t="n">
-        <v>213.2456686132143</v>
+        <v>262.0792278340695</v>
       </c>
       <c r="N16" t="n">
-        <v>213.2456686132143</v>
+        <v>383.5632825443859</v>
       </c>
       <c r="O16" t="n">
-        <v>334.7297233235307</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="P16" t="n">
-        <v>334.7297233235307</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="Q16" t="n">
-        <v>385.3268090894753</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="R16" t="n">
-        <v>376.2325924295976</v>
+        <v>481.7504488363505</v>
       </c>
       <c r="S16" t="n">
-        <v>334.6739073347161</v>
+        <v>440.1917637414691</v>
       </c>
       <c r="T16" t="n">
-        <v>304.8460822688461</v>
+        <v>410.3639386755992</v>
       </c>
       <c r="U16" t="n">
-        <v>209.4473690135992</v>
+        <v>314.9652254203523</v>
       </c>
       <c r="V16" t="n">
-        <v>158.0358081074776</v>
+        <v>263.5536645142308</v>
       </c>
       <c r="W16" t="n">
-        <v>60.96597254995668</v>
+        <v>166.4838289567099</v>
       </c>
       <c r="X16" t="n">
-        <v>32.97820939757996</v>
+        <v>138.4960658043332</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.816893309924563</v>
+        <v>115.3347497166779</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154759</v>
+        <v>317.4102657154751</v>
       </c>
       <c r="C17" t="n">
-        <v>287.5525337633686</v>
+        <v>287.5525337633678</v>
       </c>
       <c r="D17" t="n">
-        <v>270.2537288203033</v>
+        <v>270.2537288203034</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9076992111684</v>
+        <v>218.9076992111685</v>
       </c>
       <c r="F17" t="n">
-        <v>135.5209245733696</v>
+        <v>135.5209245733697</v>
       </c>
       <c r="G17" t="n">
         <v>36.34803106400242</v>
@@ -5519,7 +5519,7 @@
         <v>9.816893309924563</v>
       </c>
       <c r="L17" t="n">
-        <v>58.20402256113623</v>
+        <v>58.20402256113621</v>
       </c>
       <c r="M17" t="n">
         <v>140.9199867392994</v>
@@ -5537,13 +5537,13 @@
         <v>254.131650282144</v>
       </c>
       <c r="R17" t="n">
-        <v>375.6157049924605</v>
+        <v>301.1611192690591</v>
       </c>
       <c r="S17" t="n">
-        <v>375.6157049924605</v>
+        <v>393.5997868111767</v>
       </c>
       <c r="T17" t="n">
-        <v>421.0529775341739</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="U17" t="n">
         <v>490.8446654962281</v>
@@ -5552,13 +5552,13 @@
         <v>490.6088666471782</v>
       </c>
       <c r="W17" t="n">
-        <v>473.18450192276</v>
+        <v>473.1845019227598</v>
       </c>
       <c r="X17" t="n">
-        <v>433.6528134923424</v>
+        <v>433.6528134923418</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.3909703914765</v>
+        <v>371.3909703914758</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477149</v>
       </c>
       <c r="C18" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477149</v>
       </c>
       <c r="D18" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477149</v>
       </c>
       <c r="E18" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477149</v>
       </c>
       <c r="F18" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477149</v>
       </c>
       <c r="G18" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477149</v>
       </c>
       <c r="H18" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477149</v>
       </c>
       <c r="I18" t="n">
         <v>62.27751947477149</v>
@@ -5616,7 +5616,7 @@
         <v>490.8446654962281</v>
       </c>
       <c r="R18" t="n">
-        <v>366.89399239112</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="S18" t="n">
         <v>366.89399239112</v>
@@ -5625,19 +5625,19 @@
         <v>242.9433192860118</v>
       </c>
       <c r="U18" t="n">
-        <v>242.9433192860118</v>
+        <v>118.9926461809037</v>
       </c>
       <c r="V18" t="n">
-        <v>242.9433192860118</v>
+        <v>62.27751947477149</v>
       </c>
       <c r="W18" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477149</v>
       </c>
       <c r="X18" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477149</v>
       </c>
       <c r="Y18" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477149</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154749</v>
+        <v>317.4102657154756</v>
       </c>
       <c r="C20" t="n">
-        <v>287.5525337633676</v>
+        <v>287.5525337633683</v>
       </c>
       <c r="D20" t="n">
-        <v>270.2537288203025</v>
+        <v>270.253728820303</v>
       </c>
       <c r="E20" t="n">
-        <v>218.9076992111677</v>
+        <v>218.9076992111682</v>
       </c>
       <c r="F20" t="n">
-        <v>135.520924573369</v>
+        <v>135.5209245733693</v>
       </c>
       <c r="G20" t="n">
         <v>36.34803106400241</v>
@@ -5756,46 +5756,46 @@
         <v>9.816893309924563</v>
       </c>
       <c r="L20" t="n">
-        <v>58.20402256113623</v>
+        <v>131.300948020241</v>
       </c>
       <c r="M20" t="n">
-        <v>179.6880772714527</v>
+        <v>214.0169121984042</v>
       </c>
       <c r="N20" t="n">
-        <v>256.9000362099022</v>
+        <v>335.5009669087206</v>
       </c>
       <c r="O20" t="n">
-        <v>292.8997408142973</v>
+        <v>371.5006715131157</v>
       </c>
       <c r="P20" t="n">
-        <v>292.8997408142973</v>
+        <v>371.5006715131157</v>
       </c>
       <c r="Q20" t="n">
-        <v>292.8997408142973</v>
+        <v>371.5006715131157</v>
       </c>
       <c r="R20" t="n">
-        <v>414.3837955246137</v>
+        <v>393.5997868111767</v>
       </c>
       <c r="S20" t="n">
-        <v>421.0529775341739</v>
+        <v>393.5997868111767</v>
       </c>
       <c r="T20" t="n">
-        <v>421.0529775341739</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="U20" t="n">
         <v>490.8446654962281</v>
       </c>
       <c r="V20" t="n">
-        <v>490.6088666471778</v>
+        <v>490.6088666471782</v>
       </c>
       <c r="W20" t="n">
-        <v>473.1845019227592</v>
+        <v>473.1845019227598</v>
       </c>
       <c r="X20" t="n">
-        <v>433.6528134923416</v>
+        <v>433.6528134923421</v>
       </c>
       <c r="Y20" t="n">
-        <v>371.3909703914756</v>
+        <v>371.3909703914762</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>366.89399239112</v>
+        <v>489.9183392974444</v>
       </c>
       <c r="C21" t="n">
-        <v>366.89399239112</v>
+        <v>489.9183392974444</v>
       </c>
       <c r="D21" t="n">
-        <v>242.9433192860118</v>
+        <v>365.9676661923363</v>
       </c>
       <c r="E21" t="n">
         <v>242.0169930872281</v>
       </c>
       <c r="F21" t="n">
-        <v>118.06631998212</v>
+        <v>242.0169930872281</v>
       </c>
       <c r="G21" t="n">
         <v>118.06631998212</v>
@@ -5832,19 +5832,19 @@
         <v>9.816893309924563</v>
       </c>
       <c r="K21" t="n">
-        <v>48.69249843149193</v>
+        <v>48.69249843149191</v>
       </c>
       <c r="L21" t="n">
-        <v>167.2520893996964</v>
+        <v>126.3925013652787</v>
       </c>
       <c r="M21" t="n">
-        <v>288.7361441100128</v>
+        <v>247.8765560755952</v>
       </c>
       <c r="N21" t="n">
-        <v>288.7361441100128</v>
+        <v>369.3606107859117</v>
       </c>
       <c r="O21" t="n">
-        <v>410.2201988203293</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="P21" t="n">
         <v>490.8446654962281</v>
@@ -5862,19 +5862,19 @@
         <v>490.8446654962281</v>
       </c>
       <c r="U21" t="n">
-        <v>366.89399239112</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="V21" t="n">
-        <v>366.89399239112</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="W21" t="n">
-        <v>366.89399239112</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="X21" t="n">
-        <v>366.89399239112</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="Y21" t="n">
-        <v>366.89399239112</v>
+        <v>490.8446654962281</v>
       </c>
     </row>
     <row r="22">
@@ -5987,25 +5987,25 @@
         <v>9.816893309924563</v>
       </c>
       <c r="J23" t="n">
-        <v>125.0458538136922</v>
+        <v>9.816893309924563</v>
       </c>
       <c r="K23" t="n">
-        <v>125.0458538136922</v>
+        <v>9.816893309924563</v>
       </c>
       <c r="L23" t="n">
-        <v>173.4329830649039</v>
+        <v>58.20402256113621</v>
       </c>
       <c r="M23" t="n">
-        <v>256.148947243067</v>
+        <v>140.9199867392994</v>
       </c>
       <c r="N23" t="n">
-        <v>333.3609061815166</v>
+        <v>218.1319456777489</v>
       </c>
       <c r="O23" t="n">
-        <v>369.3606107859117</v>
+        <v>254.131650282144</v>
       </c>
       <c r="P23" t="n">
-        <v>369.3606107859117</v>
+        <v>254.131650282144</v>
       </c>
       <c r="Q23" t="n">
         <v>369.3606107859117</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.816893309924563</v>
+        <v>257.7182395201408</v>
       </c>
       <c r="C24" t="n">
-        <v>9.816893309924563</v>
+        <v>257.7182395201408</v>
       </c>
       <c r="D24" t="n">
-        <v>9.816893309924563</v>
+        <v>133.7675664150327</v>
       </c>
       <c r="E24" t="n">
-        <v>9.816893309924563</v>
+        <v>133.7675664150327</v>
       </c>
       <c r="F24" t="n">
-        <v>9.816893309924563</v>
+        <v>133.7675664150327</v>
       </c>
       <c r="G24" t="n">
-        <v>9.816893309924563</v>
+        <v>133.7675664150327</v>
       </c>
       <c r="H24" t="n">
         <v>9.816893309924563</v>
@@ -6069,10 +6069,10 @@
         <v>9.816893309924563</v>
       </c>
       <c r="K24" t="n">
-        <v>48.69249843149193</v>
+        <v>48.69249843149191</v>
       </c>
       <c r="L24" t="n">
-        <v>48.69249843149193</v>
+        <v>48.69249843149191</v>
       </c>
       <c r="M24" t="n">
         <v>170.1765531418084</v>
@@ -6087,31 +6087,31 @@
         <v>490.8446654962281</v>
       </c>
       <c r="Q24" t="n">
-        <v>484.6416242957319</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="R24" t="n">
-        <v>484.6416242957319</v>
+        <v>490.8446654962281</v>
       </c>
       <c r="S24" t="n">
+        <v>490.8446654962281</v>
+      </c>
+      <c r="T24" t="n">
         <v>381.6689126252489</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
+        <v>381.6689126252489</v>
+      </c>
+      <c r="V24" t="n">
         <v>257.7182395201408</v>
       </c>
-      <c r="U24" t="n">
-        <v>133.7675664150327</v>
-      </c>
-      <c r="V24" t="n">
-        <v>133.7675664150327</v>
-      </c>
       <c r="W24" t="n">
-        <v>133.7675664150327</v>
+        <v>257.7182395201408</v>
       </c>
       <c r="X24" t="n">
-        <v>9.816893309924563</v>
+        <v>257.7182395201408</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.816893309924563</v>
+        <v>257.7182395201408</v>
       </c>
     </row>
     <row r="25">
@@ -6212,43 +6212,43 @@
         <v>599.5642824986439</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3636102019461</v>
+        <v>407.363610201946</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3768190336798</v>
+        <v>199.3768190336797</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03178362070288</v>
+        <v>64.03178362070281</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="J26" t="n">
         <v>171.7479657778251</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2225660613047</v>
+        <v>377.2225660613046</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4010735381362</v>
+        <v>636.4010735381361</v>
       </c>
       <c r="M26" t="n">
-        <v>929.908415941919</v>
+        <v>929.9084159419187</v>
       </c>
       <c r="N26" t="n">
         <v>1217.911753105988</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.702835936003</v>
+        <v>1464.702835936002</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.071556543467</v>
+        <v>1662.071556543466</v>
       </c>
       <c r="Q26" t="n">
         <v>1785.188566519003</v>
       </c>
       <c r="R26" t="n">
-        <v>1803.710490556108</v>
+        <v>1803.710490556107</v>
       </c>
       <c r="S26" t="n">
         <v>1789.212139823152</v>
@@ -6257,16 +6257,16 @@
         <v>1779.617585787405</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.012430054896</v>
+        <v>1742.012430054895</v>
       </c>
       <c r="V26" t="n">
-        <v>1632.962733546947</v>
+        <v>1632.962733546946</v>
       </c>
       <c r="W26" t="n">
         <v>1506.724471163629</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.378885074313</v>
+        <v>1358.378885074312</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.303144314548</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>498.2628026011657</v>
+        <v>1389.166132902534</v>
       </c>
       <c r="C27" t="n">
-        <v>323.7341723924506</v>
+        <v>1199.753858635498</v>
       </c>
       <c r="D27" t="n">
-        <v>323.7341723924506</v>
+        <v>1199.753858635498</v>
       </c>
       <c r="E27" t="n">
-        <v>323.7341723924506</v>
+        <v>1199.753858635498</v>
       </c>
       <c r="F27" t="n">
-        <v>323.7341723924506</v>
+        <v>1199.753858635498</v>
       </c>
       <c r="G27" t="n">
-        <v>323.7341723924506</v>
+        <v>1199.753858635498</v>
       </c>
       <c r="H27" t="n">
-        <v>196.7842626481645</v>
+        <v>1199.753858635498</v>
       </c>
       <c r="I27" t="n">
-        <v>88.53483597596909</v>
+        <v>1091.504431963303</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07420981112215</v>
+        <v>1039.043805798456</v>
       </c>
       <c r="K27" t="n">
-        <v>74.94981493268952</v>
+        <v>1077.919410920023</v>
       </c>
       <c r="L27" t="n">
-        <v>193.509405900894</v>
+        <v>1196.479001888227</v>
       </c>
       <c r="M27" t="n">
-        <v>376.6175206836086</v>
+        <v>1379.587116670942</v>
       </c>
       <c r="N27" t="n">
-        <v>582.9918519763009</v>
+        <v>1585.961447963635</v>
       </c>
       <c r="O27" t="n">
-        <v>716.0369642505273</v>
+        <v>1719.006560237861</v>
       </c>
       <c r="P27" t="n">
-        <v>800.7408945687733</v>
+        <v>1803.710490556107</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.7408945687733</v>
+        <v>1797.507449355611</v>
       </c>
       <c r="R27" t="n">
-        <v>800.7408945687733</v>
+        <v>1797.507449355611</v>
       </c>
       <c r="S27" t="n">
-        <v>800.7408945687733</v>
+        <v>1797.507449355611</v>
       </c>
       <c r="T27" t="n">
-        <v>798.6930785541962</v>
+        <v>1795.459633341033</v>
       </c>
       <c r="U27" t="n">
-        <v>774.140442195555</v>
+        <v>1701.579216606637</v>
       </c>
       <c r="V27" t="n">
-        <v>746.1320211358382</v>
+        <v>1673.570795546921</v>
       </c>
       <c r="W27" t="n">
-        <v>691.8047489027786</v>
+        <v>1619.243523313861</v>
       </c>
       <c r="X27" t="n">
-        <v>687.368051556124</v>
+        <v>1614.806825967207</v>
       </c>
       <c r="Y27" t="n">
-        <v>676.7986555281008</v>
+        <v>1389.166132902534</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="D28" t="n">
         <v>103.1347642885383</v>
@@ -6370,40 +6370,40 @@
         <v>103.1347642885383</v>
       </c>
       <c r="F28" t="n">
-        <v>116.7335391553835</v>
+        <v>124.7238904103306</v>
       </c>
       <c r="G28" t="n">
-        <v>116.7335391553835</v>
+        <v>168.5062378545097</v>
       </c>
       <c r="H28" t="n">
-        <v>116.7335391553835</v>
+        <v>168.5062378545097</v>
       </c>
       <c r="I28" t="n">
-        <v>116.7335391553835</v>
+        <v>168.5062378545097</v>
       </c>
       <c r="J28" t="n">
-        <v>116.7335391553835</v>
+        <v>260.5952678013794</v>
       </c>
       <c r="K28" t="n">
-        <v>116.7335391553835</v>
+        <v>260.5952678013794</v>
       </c>
       <c r="L28" t="n">
-        <v>116.7335391553835</v>
+        <v>260.5952678013794</v>
       </c>
       <c r="M28" t="n">
-        <v>116.7335391553835</v>
+        <v>260.5952678013794</v>
       </c>
       <c r="N28" t="n">
-        <v>116.7335391553835</v>
+        <v>260.5952678013794</v>
       </c>
       <c r="O28" t="n">
-        <v>116.7335391553835</v>
+        <v>260.5952678013794</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2039500901374</v>
+        <v>260.5952678013794</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2039500901374</v>
+        <v>260.5952678013794</v>
       </c>
       <c r="R28" t="n">
         <v>270.2039500901374</v>
@@ -6421,13 +6421,13 @@
         <v>127.5991422483933</v>
       </c>
       <c r="W28" t="n">
-        <v>49.42730081096634</v>
+        <v>49.42730081096632</v>
       </c>
       <c r="X28" t="n">
-        <v>40.33753177868358</v>
+        <v>40.33753177868357</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.508541979648</v>
+        <v>1024.508541979647</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8369123686418</v>
+        <v>885.8369123686412</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7242097666776</v>
+        <v>759.7242097666769</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5642824986438</v>
+        <v>599.5642824986431</v>
       </c>
       <c r="F29" t="n">
-        <v>407.363610201946</v>
+        <v>407.3636102019453</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3768190336798</v>
+        <v>199.3768190336791</v>
       </c>
       <c r="H29" t="n">
-        <v>64.0317836207028</v>
+        <v>64.03178362070278</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7479657778252</v>
+        <v>171.7479657778236</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2225660613049</v>
+        <v>377.2225660613033</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4010735381364</v>
+        <v>636.4010735381348</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9084159419194</v>
+        <v>929.9084159419178</v>
       </c>
       <c r="N29" t="n">
-        <v>1217.911753105988</v>
+        <v>1217.911753105987</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.702835936003</v>
+        <v>1464.702835936002</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.071556543467</v>
+        <v>1662.071556543466</v>
       </c>
       <c r="Q29" t="n">
         <v>1785.188566519003</v>
       </c>
       <c r="R29" t="n">
-        <v>1803.710490556108</v>
+        <v>1803.710490556107</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.212139823152</v>
+        <v>1789.212139823151</v>
       </c>
       <c r="T29" t="n">
         <v>1779.617585787405</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.012430054896</v>
+        <v>1742.012430054895</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.962733546947</v>
+        <v>1632.962733546946</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.724471163629</v>
+        <v>1506.724471163628</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.378885074313</v>
+        <v>1358.378885074312</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.303144314548</v>
+        <v>1187.303144314547</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>347.0956370139763</v>
+        <v>262.1053341097905</v>
       </c>
       <c r="C30" t="n">
-        <v>347.0956370139763</v>
+        <v>262.1053341097905</v>
       </c>
       <c r="D30" t="n">
-        <v>186.3155207750081</v>
+        <v>262.1053341097905</v>
       </c>
       <c r="E30" t="n">
-        <v>186.3155207750081</v>
+        <v>88.54213023120494</v>
       </c>
       <c r="F30" t="n">
-        <v>186.3155207750081</v>
+        <v>88.53483597596906</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07420981112215</v>
+        <v>88.53483597596906</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07420981112215</v>
+        <v>88.53483597596906</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07420981112215</v>
+        <v>88.53483597596906</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="K30" t="n">
-        <v>74.94981493268952</v>
+        <v>74.94981493268949</v>
       </c>
       <c r="L30" t="n">
-        <v>193.509405900894</v>
+        <v>193.5094059008939</v>
       </c>
       <c r="M30" t="n">
         <v>376.6175206836086</v>
@@ -6558,34 +6558,34 @@
         <v>716.0369642505273</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7408945687733</v>
+        <v>800.7408945687732</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.7408945687733</v>
+        <v>794.5378533682771</v>
       </c>
       <c r="R30" t="n">
-        <v>665.0181776548369</v>
+        <v>794.5378533682771</v>
       </c>
       <c r="S30" t="n">
-        <v>665.0181776548369</v>
+        <v>601.1188701871116</v>
       </c>
       <c r="T30" t="n">
-        <v>662.9703616402599</v>
+        <v>599.0710541725346</v>
       </c>
       <c r="U30" t="n">
-        <v>444.4374236814302</v>
+        <v>574.5184178138935</v>
       </c>
       <c r="V30" t="n">
-        <v>416.4290026217134</v>
+        <v>546.5099967541768</v>
       </c>
       <c r="W30" t="n">
-        <v>362.1017303886539</v>
+        <v>492.1827245211173</v>
       </c>
       <c r="X30" t="n">
-        <v>357.6650330419995</v>
+        <v>487.7460271744628</v>
       </c>
       <c r="Y30" t="n">
-        <v>347.0956370139763</v>
+        <v>262.1053341097905</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="I31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="J31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="K31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="L31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="M31" t="n">
-        <v>36.07420981112215</v>
+        <v>222.6433429629303</v>
       </c>
       <c r="N31" t="n">
-        <v>36.07420981112215</v>
+        <v>222.6433429629303</v>
       </c>
       <c r="O31" t="n">
-        <v>36.07420981112215</v>
+        <v>222.6433429629303</v>
       </c>
       <c r="P31" t="n">
-        <v>189.5446207458761</v>
+        <v>270.2039500901368</v>
       </c>
       <c r="Q31" t="n">
         <v>270.2039500901368</v>
@@ -6658,13 +6658,13 @@
         <v>127.5991422483931</v>
       </c>
       <c r="W31" t="n">
-        <v>49.42730081096617</v>
+        <v>49.42730081096615</v>
       </c>
       <c r="X31" t="n">
-        <v>40.3375317786835</v>
+        <v>40.33753177868348</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8369123686422</v>
+        <v>885.8369123686414</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7242097666779</v>
+        <v>759.7242097666771</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5642824986439</v>
+        <v>599.5642824986431</v>
       </c>
       <c r="F32" t="n">
-        <v>407.363610201946</v>
+        <v>407.3636102019452</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3768190336798</v>
+        <v>199.3768190336789</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03178362070284</v>
+        <v>64.03178362070291</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J32" t="n">
         <v>171.7479657778251</v>
@@ -6707,19 +6707,19 @@
         <v>636.4010735381361</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9084159419191</v>
+        <v>929.908415941919</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.911753105989</v>
+        <v>1217.911753105988</v>
       </c>
       <c r="O32" t="n">
         <v>1464.702835936003</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.071556543468</v>
+        <v>1662.071556543467</v>
       </c>
       <c r="Q32" t="n">
-        <v>1785.188566519004</v>
+        <v>1785.188566519003</v>
       </c>
       <c r="R32" t="n">
         <v>1803.710490556108</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>477.1766311464391</v>
+        <v>313.2654305192942</v>
       </c>
       <c r="C33" t="n">
-        <v>477.1766311464391</v>
+        <v>313.2654305192942</v>
       </c>
       <c r="D33" t="n">
-        <v>477.1766311464391</v>
+        <v>313.2654305192942</v>
       </c>
       <c r="E33" t="n">
-        <v>473.6931468020501</v>
+        <v>313.2654305192942</v>
       </c>
       <c r="F33" t="n">
         <v>313.2654305192942</v>
       </c>
       <c r="G33" t="n">
-        <v>163.0241195554083</v>
+        <v>163.0241195554082</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K33" t="n">
-        <v>74.94981493268952</v>
+        <v>74.94981493268951</v>
       </c>
       <c r="L33" t="n">
         <v>193.509405900894</v>
@@ -6795,34 +6795,34 @@
         <v>716.0369642505273</v>
       </c>
       <c r="P33" t="n">
-        <v>800.7408945687733</v>
+        <v>800.7408945687732</v>
       </c>
       <c r="Q33" t="n">
-        <v>794.5378533682772</v>
+        <v>800.7408945687732</v>
       </c>
       <c r="R33" t="n">
-        <v>794.5378533682772</v>
+        <v>800.7408945687732</v>
       </c>
       <c r="S33" t="n">
-        <v>601.1188701871117</v>
+        <v>800.7408945687732</v>
       </c>
       <c r="T33" t="n">
-        <v>599.0710541725346</v>
+        <v>583.621781517547</v>
       </c>
       <c r="U33" t="n">
-        <v>574.5184178138934</v>
+        <v>410.6072171867485</v>
       </c>
       <c r="V33" t="n">
-        <v>546.5099967541765</v>
+        <v>382.5987961270316</v>
       </c>
       <c r="W33" t="n">
-        <v>492.1827245211169</v>
+        <v>328.271523893972</v>
       </c>
       <c r="X33" t="n">
-        <v>487.7460271744624</v>
+        <v>323.8348265473174</v>
       </c>
       <c r="Y33" t="n">
-        <v>477.1766311464391</v>
+        <v>313.2654305192942</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07420981112216</v>
+        <v>82.07297887448928</v>
       </c>
       <c r="D34" t="n">
-        <v>36.07420981112216</v>
+        <v>82.07297887448928</v>
       </c>
       <c r="E34" t="n">
-        <v>36.07420981112216</v>
+        <v>82.07297887448928</v>
       </c>
       <c r="F34" t="n">
-        <v>36.07420981112216</v>
+        <v>155.3267437038468</v>
       </c>
       <c r="G34" t="n">
-        <v>36.07420981112216</v>
+        <v>155.3267437038468</v>
       </c>
       <c r="H34" t="n">
-        <v>36.07420981112216</v>
+        <v>155.3267437038468</v>
       </c>
       <c r="I34" t="n">
-        <v>83.80358600786141</v>
+        <v>203.0561199005861</v>
       </c>
       <c r="J34" t="n">
-        <v>83.80358600786141</v>
+        <v>203.0561199005861</v>
       </c>
       <c r="K34" t="n">
-        <v>83.80358600786141</v>
+        <v>260.5952678013796</v>
       </c>
       <c r="L34" t="n">
-        <v>83.80358600786141</v>
+        <v>260.5952678013796</v>
       </c>
       <c r="M34" t="n">
-        <v>270.2039500901374</v>
+        <v>260.5952678013796</v>
       </c>
       <c r="N34" t="n">
-        <v>270.2039500901374</v>
+        <v>260.5952678013796</v>
       </c>
       <c r="O34" t="n">
-        <v>270.2039500901374</v>
+        <v>260.5952678013796</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2039500901374</v>
+        <v>260.5952678013796</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2039500901374</v>
+        <v>260.5952678013796</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901376</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5432591153499</v>
+        <v>247.5432591153501</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6134281695739</v>
+        <v>236.613428169574</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1127090344209</v>
+        <v>160.112709034421</v>
       </c>
       <c r="V34" t="n">
-        <v>127.5991422483933</v>
+        <v>127.5991422483934</v>
       </c>
       <c r="W34" t="n">
-        <v>49.42730081096634</v>
+        <v>49.42730081096639</v>
       </c>
       <c r="X34" t="n">
-        <v>40.33753177868359</v>
+        <v>40.33753177868361</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.2454280561331</v>
+        <v>772.2454280561321</v>
       </c>
       <c r="C35" t="n">
-        <v>669.3219062457949</v>
+        <v>669.321906245794</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444989</v>
+        <v>578.957311444498</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771335</v>
+        <v>454.5454919771325</v>
       </c>
       <c r="F35" t="n">
-        <v>298.092927481104</v>
+        <v>298.0929274811031</v>
       </c>
       <c r="G35" t="n">
         <v>125.8542441135061</v>
       </c>
       <c r="H35" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="I35" t="n">
-        <v>33.8928188658626</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="J35" t="n">
-        <v>204.6032952880007</v>
+        <v>196.9677929233356</v>
       </c>
       <c r="K35" t="n">
-        <v>445.1146160269153</v>
+        <v>196.9677929233356</v>
       </c>
       <c r="L35" t="n">
-        <v>647.1872833074627</v>
+        <v>491.1830208556021</v>
       </c>
       <c r="M35" t="n">
-        <v>729.9032474856259</v>
+        <v>816.1173125579222</v>
       </c>
       <c r="N35" t="n">
-        <v>807.1152064240754</v>
+        <v>893.3292714963717</v>
       </c>
       <c r="O35" t="n">
-        <v>843.1149110284705</v>
+        <v>929.3289761007668</v>
       </c>
       <c r="P35" t="n">
-        <v>1075.52035209137</v>
+        <v>1054.693465189303</v>
       </c>
       <c r="Q35" t="n">
-        <v>1233.674082522341</v>
+        <v>1212.847195620275</v>
       </c>
       <c r="R35" t="n">
-        <v>1287.23272701488</v>
+        <v>1266.405840112814</v>
       </c>
       <c r="S35" t="n">
         <v>1287.23272701488</v>
       </c>
       <c r="T35" t="n">
-        <v>1312.86582505988</v>
+        <v>1312.865825059879</v>
       </c>
       <c r="U35" t="n">
-        <v>1311.008777128039</v>
+        <v>1311.008777128038</v>
       </c>
       <c r="V35" t="n">
         <v>1237.707188420758</v>
       </c>
       <c r="W35" t="n">
-        <v>1147.21703383811</v>
+        <v>1147.217033838109</v>
       </c>
       <c r="X35" t="n">
-        <v>1034.619555549461</v>
+        <v>1034.61955554946</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2919225903646</v>
+        <v>899.2919225903637</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>630.4190787120249</v>
+        <v>232.4455739209136</v>
       </c>
       <c r="C36" t="n">
-        <v>630.4190787120249</v>
+        <v>232.4455739209136</v>
       </c>
       <c r="D36" t="n">
-        <v>469.6389624730566</v>
+        <v>232.4455739209136</v>
       </c>
       <c r="E36" t="n">
-        <v>469.6389624730566</v>
+        <v>153.2072262454837</v>
       </c>
       <c r="F36" t="n">
-        <v>309.2112461903007</v>
+        <v>153.2072262454837</v>
       </c>
       <c r="G36" t="n">
-        <v>205.6678524103306</v>
+        <v>153.2072262454837</v>
       </c>
       <c r="H36" t="n">
-        <v>78.71794266604452</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="I36" t="n">
-        <v>78.71794266604452</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="J36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="K36" t="n">
-        <v>65.13292162276495</v>
+        <v>65.13292162276494</v>
       </c>
       <c r="L36" t="n">
         <v>183.6925125909694</v>
@@ -7035,31 +7035,31 @@
         <v>790.9240012588486</v>
       </c>
       <c r="Q36" t="n">
-        <v>784.7209600583525</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="R36" t="n">
-        <v>648.9982431444161</v>
+        <v>655.2012843449122</v>
       </c>
       <c r="S36" t="n">
-        <v>648.9982431444161</v>
+        <v>655.2012843449122</v>
       </c>
       <c r="T36" t="n">
-        <v>648.9982431444161</v>
+        <v>655.2012843449122</v>
       </c>
       <c r="U36" t="n">
-        <v>648.9982431444161</v>
+        <v>655.2012843449122</v>
       </c>
       <c r="V36" t="n">
-        <v>648.9982431444161</v>
+        <v>655.2012843449122</v>
       </c>
       <c r="W36" t="n">
-        <v>630.4190787120249</v>
+        <v>636.622119912521</v>
       </c>
       <c r="X36" t="n">
-        <v>630.4190787120249</v>
+        <v>636.622119912521</v>
       </c>
       <c r="Y36" t="n">
-        <v>630.4190787120249</v>
+        <v>410.9814268478487</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="C37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="D37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="E37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="F37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="G37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="H37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="I37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="J37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="K37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="L37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="M37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="N37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="O37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="P37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="Q37" t="n">
         <v>109.4336614724408</v>
@@ -7126,19 +7126,19 @@
         <v>109.4336614724408</v>
       </c>
       <c r="U37" t="n">
-        <v>68.68105013795622</v>
+        <v>68.68105013795621</v>
       </c>
       <c r="V37" t="n">
-        <v>68.68105013795622</v>
+        <v>68.68105013795621</v>
       </c>
       <c r="W37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="X37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>772.2454280561329</v>
+        <v>772.2454280561327</v>
       </c>
       <c r="C38" t="n">
-        <v>669.321906245795</v>
+        <v>669.3219062457948</v>
       </c>
       <c r="D38" t="n">
-        <v>578.9573114444991</v>
+        <v>578.9573114444988</v>
       </c>
       <c r="E38" t="n">
-        <v>454.5454919771336</v>
+        <v>454.5454919771333</v>
       </c>
       <c r="F38" t="n">
-        <v>298.092927481104</v>
+        <v>298.0929274811038</v>
       </c>
       <c r="G38" t="n">
         <v>125.8542441135061</v>
       </c>
       <c r="H38" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="I38" t="n">
-        <v>33.8928188658626</v>
+        <v>33.89281886586259</v>
       </c>
       <c r="J38" t="n">
         <v>204.6032952880007</v>
       </c>
       <c r="K38" t="n">
-        <v>445.1146160269153</v>
+        <v>234.657913761789</v>
       </c>
       <c r="L38" t="n">
-        <v>493.501745278127</v>
+        <v>528.8731416940554</v>
       </c>
       <c r="M38" t="n">
-        <v>818.4360369804472</v>
+        <v>853.8074333963757</v>
       </c>
       <c r="N38" t="n">
-        <v>1018.693760584909</v>
+        <v>931.0193923348252</v>
       </c>
       <c r="O38" t="n">
-        <v>1054.693465189304</v>
+        <v>1212.847195620275</v>
       </c>
       <c r="P38" t="n">
-        <v>1054.693465189304</v>
+        <v>1212.847195620275</v>
       </c>
       <c r="Q38" t="n">
         <v>1212.847195620275</v>
       </c>
       <c r="R38" t="n">
-        <v>1266.405840112815</v>
+        <v>1266.405840112814</v>
       </c>
       <c r="S38" t="n">
         <v>1287.23272701488</v>
@@ -7205,7 +7205,7 @@
         <v>1312.86582505988</v>
       </c>
       <c r="U38" t="n">
-        <v>1311.008777128039</v>
+        <v>1311.008777128038</v>
       </c>
       <c r="V38" t="n">
         <v>1237.707188420758</v>
@@ -7217,7 +7217,7 @@
         <v>1034.619555549461</v>
       </c>
       <c r="Y38" t="n">
-        <v>899.2919225903643</v>
+        <v>899.291922590364</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>252.2811465446301</v>
+        <v>355.9091633742165</v>
       </c>
       <c r="C39" t="n">
-        <v>252.2811465446301</v>
+        <v>355.9091633742165</v>
       </c>
       <c r="D39" t="n">
-        <v>252.2811465446301</v>
+        <v>355.9091633742165</v>
       </c>
       <c r="E39" t="n">
-        <v>78.71794266604452</v>
+        <v>355.9091633742165</v>
       </c>
       <c r="F39" t="n">
-        <v>78.71794266604452</v>
+        <v>355.9091633742165</v>
       </c>
       <c r="G39" t="n">
-        <v>78.71794266604452</v>
+        <v>205.6678524103306</v>
       </c>
       <c r="H39" t="n">
         <v>78.71794266604452</v>
@@ -7251,10 +7251,10 @@
         <v>78.71794266604452</v>
       </c>
       <c r="J39" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="K39" t="n">
-        <v>65.13292162276495</v>
+        <v>65.13292162276494</v>
       </c>
       <c r="L39" t="n">
         <v>183.6925125909694</v>
@@ -7272,31 +7272,31 @@
         <v>790.9240012588486</v>
       </c>
       <c r="Q39" t="n">
-        <v>784.7209600583525</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="R39" t="n">
-        <v>784.7209600583525</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="S39" t="n">
-        <v>784.7209600583525</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="T39" t="n">
-        <v>567.6018470071263</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="U39" t="n">
-        <v>567.6018470071263</v>
+        <v>551.3000678635584</v>
       </c>
       <c r="V39" t="n">
-        <v>567.6018470071263</v>
+        <v>551.3000678635584</v>
       </c>
       <c r="W39" t="n">
-        <v>471.7891409279337</v>
+        <v>532.7209034311672</v>
       </c>
       <c r="X39" t="n">
-        <v>252.2811465446301</v>
+        <v>532.7209034311672</v>
       </c>
       <c r="Y39" t="n">
-        <v>252.2811465446301</v>
+        <v>355.9091633742165</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.11555509622572</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="C40" t="n">
-        <v>57.11555509622572</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="D40" t="n">
-        <v>57.11555509622572</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="E40" t="n">
-        <v>57.11555509622572</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="F40" t="n">
-        <v>57.11555509622572</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="G40" t="n">
-        <v>57.11555509622572</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="H40" t="n">
-        <v>57.11555509622572</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="I40" t="n">
-        <v>57.11555509622572</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="J40" t="n">
-        <v>57.11555509622572</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="K40" t="n">
         <v>109.4336614724408</v>
@@ -7369,13 +7369,13 @@
         <v>68.68105013795622</v>
       </c>
       <c r="W40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="X40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.11555509622572</v>
+        <v>26.25731650119759</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.8965178780265</v>
+        <v>820.896517878027</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1824620766009</v>
+        <v>710.1824620766014</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0273332842173</v>
+        <v>612.0273332842178</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8249798257641</v>
+        <v>479.8249798257646</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5818813386468</v>
+        <v>315.5818813386472</v>
       </c>
       <c r="G41" t="n">
         <v>135.5526639799622</v>
@@ -7409,40 +7409,40 @@
         <v>28.165202376566</v>
       </c>
       <c r="J41" t="n">
-        <v>191.2401764340391</v>
+        <v>61.39858840417656</v>
       </c>
       <c r="K41" t="n">
-        <v>424.1159948082886</v>
+        <v>294.2744067784262</v>
       </c>
       <c r="L41" t="n">
-        <v>710.6957203758901</v>
+        <v>342.6615360296378</v>
       </c>
       <c r="M41" t="n">
-        <v>847.2231042374844</v>
+        <v>425.377500207801</v>
       </c>
       <c r="N41" t="n">
-        <v>1162.627659492324</v>
+        <v>740.7820554626403</v>
       </c>
       <c r="O41" t="n">
-        <v>1198.627364096719</v>
+        <v>1014.974356383425</v>
       </c>
       <c r="P41" t="n">
-        <v>1198.627364096719</v>
+        <v>1239.744295081659</v>
       </c>
       <c r="Q41" t="n">
-        <v>1349.145592163025</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="R41" t="n">
-        <v>1395.0687342909</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="S41" t="n">
-        <v>1408.2601188283</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="T41" t="n">
         <v>1408.2601188283</v>
       </c>
       <c r="U41" t="n">
-        <v>1398.612536905371</v>
+        <v>1398.612536905372</v>
       </c>
       <c r="V41" t="n">
         <v>1317.520414207003</v>
@@ -7454,7 +7454,7 @@
         <v>1098.85171335353</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7335464033456</v>
+        <v>955.7335464033461</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>528.2465038902442</v>
+        <v>349.6702040277143</v>
       </c>
       <c r="C42" t="n">
-        <v>338.8342296232079</v>
+        <v>349.6702040277143</v>
       </c>
       <c r="D42" t="n">
-        <v>338.8342296232079</v>
+        <v>349.6702040277143</v>
       </c>
       <c r="E42" t="n">
-        <v>338.8342296232079</v>
+        <v>349.6702040277143</v>
       </c>
       <c r="F42" t="n">
-        <v>178.4065133404519</v>
+        <v>349.6702040277143</v>
       </c>
       <c r="G42" t="n">
-        <v>28.165202376566</v>
+        <v>315.8251649578945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.165202376566</v>
+        <v>188.8752552136083</v>
       </c>
       <c r="I42" t="n">
-        <v>28.165202376566</v>
+        <v>80.62582854141293</v>
       </c>
       <c r="J42" t="n">
         <v>28.165202376566</v>
@@ -7518,22 +7518,22 @@
         <v>593.2098627525555</v>
       </c>
       <c r="T42" t="n">
-        <v>593.2098627525555</v>
+        <v>376.0907497013293</v>
       </c>
       <c r="U42" t="n">
-        <v>554.6670495638592</v>
+        <v>376.0907497013293</v>
       </c>
       <c r="V42" t="n">
-        <v>554.6162023137231</v>
+        <v>376.0399024511932</v>
       </c>
       <c r="W42" t="n">
-        <v>528.2465038902442</v>
+        <v>349.6702040277143</v>
       </c>
       <c r="X42" t="n">
-        <v>528.2465038902442</v>
+        <v>349.6702040277143</v>
       </c>
       <c r="Y42" t="n">
-        <v>528.2465038902442</v>
+        <v>349.6702040277143</v>
       </c>
     </row>
     <row r="43">
@@ -7549,31 +7549,31 @@
         <v>28.165202376566</v>
       </c>
       <c r="D43" t="n">
-        <v>122.6269749447522</v>
+        <v>28.165202376566</v>
       </c>
       <c r="E43" t="n">
-        <v>122.6269749447522</v>
+        <v>28.165202376566</v>
       </c>
       <c r="F43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="G43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="H43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="I43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="J43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="L43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="M43" t="n">
         <v>131.4786083064315</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.8965178780267</v>
+        <v>820.8965178780271</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1824620766013</v>
+        <v>710.1824620766017</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0273332842175</v>
+        <v>612.027333284218</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8249798257642</v>
+        <v>479.8249798257644</v>
       </c>
       <c r="F44" t="n">
-        <v>315.581881338647</v>
+        <v>315.5818813386472</v>
       </c>
       <c r="G44" t="n">
         <v>135.5526639799622</v>
@@ -7646,52 +7646,52 @@
         <v>28.165202376566</v>
       </c>
       <c r="J44" t="n">
-        <v>28.165202376566</v>
+        <v>191.2401764340391</v>
       </c>
       <c r="K44" t="n">
-        <v>28.165202376566</v>
+        <v>424.1159948082886</v>
       </c>
       <c r="L44" t="n">
-        <v>314.7449279441675</v>
+        <v>710.6957203758901</v>
       </c>
       <c r="M44" t="n">
-        <v>635.6534884387205</v>
+        <v>793.4116845540533</v>
       </c>
       <c r="N44" t="n">
-        <v>712.8654473771701</v>
+        <v>1108.816239808893</v>
       </c>
       <c r="O44" t="n">
-        <v>987.0488099358854</v>
+        <v>1383.008540729677</v>
       </c>
       <c r="P44" t="n">
-        <v>1211.81874863412</v>
+        <v>1383.008540729677</v>
       </c>
       <c r="Q44" t="n">
-        <v>1362.336976700426</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="R44" t="n">
-        <v>1408.2601188283</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="S44" t="n">
-        <v>1408.2601188283</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="T44" t="n">
         <v>1408.2601188283</v>
       </c>
       <c r="U44" t="n">
-        <v>1398.612536905371</v>
+        <v>1398.612536905372</v>
       </c>
       <c r="V44" t="n">
         <v>1317.520414207003</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.239725633266</v>
+        <v>1219.239725633267</v>
       </c>
       <c r="X44" t="n">
         <v>1098.85171335353</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7335464033457</v>
+        <v>955.7335464033462</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>760.2083002601063</v>
+        <v>188.9453186155343</v>
       </c>
       <c r="C45" t="n">
-        <v>673.1775497407617</v>
+        <v>188.9453186155343</v>
       </c>
       <c r="D45" t="n">
-        <v>512.3974335017934</v>
+        <v>28.165202376566</v>
       </c>
       <c r="E45" t="n">
-        <v>338.8342296232079</v>
+        <v>28.165202376566</v>
       </c>
       <c r="F45" t="n">
-        <v>178.4065133404519</v>
+        <v>28.165202376566</v>
       </c>
       <c r="G45" t="n">
         <v>28.165202376566</v>
@@ -7728,49 +7728,49 @@
         <v>28.165202376566</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04080749813339</v>
+        <v>67.04080749813336</v>
       </c>
       <c r="L45" t="n">
-        <v>185.6003984663379</v>
+        <v>185.6003984663378</v>
       </c>
       <c r="M45" t="n">
-        <v>368.7085132490525</v>
+        <v>368.7085132490524</v>
       </c>
       <c r="N45" t="n">
-        <v>575.082844541745</v>
+        <v>575.0828445417447</v>
       </c>
       <c r="O45" t="n">
-        <v>708.1279568159714</v>
+        <v>708.1279568159711</v>
       </c>
       <c r="P45" t="n">
-        <v>792.8318871342175</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="Q45" t="n">
-        <v>786.6288459337213</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="R45" t="n">
-        <v>786.6288459337213</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="S45" t="n">
-        <v>786.6288459337213</v>
+        <v>599.4129039530517</v>
       </c>
       <c r="T45" t="n">
-        <v>786.6288459337213</v>
+        <v>599.4129039530517</v>
       </c>
       <c r="U45" t="n">
-        <v>786.6288459337213</v>
+        <v>434.8738586724529</v>
       </c>
       <c r="V45" t="n">
-        <v>786.5779986835852</v>
+        <v>434.8230114223168</v>
       </c>
       <c r="W45" t="n">
-        <v>760.2083002601063</v>
+        <v>408.4533129988379</v>
       </c>
       <c r="X45" t="n">
-        <v>760.2083002601063</v>
+        <v>188.9453186155343</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.2083002601063</v>
+        <v>188.9453186155343</v>
       </c>
     </row>
     <row r="46">
@@ -7789,49 +7789,49 @@
         <v>28.165202376566</v>
       </c>
       <c r="E46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="F46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="G46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="H46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="I46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="J46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="K46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="L46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="M46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="N46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="O46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="P46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4786083064315</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4786083064315</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4786083064315</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="T46" t="n">
         <v>131.4786083064315</v>
@@ -8769,13 +8769,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5473811624956</v>
       </c>
       <c r="M12" t="n">
-        <v>151.9668072660662</v>
+        <v>239.5303559843452</v>
       </c>
       <c r="N12" t="n">
         <v>224.8661044510107</v>
@@ -8784,7 +8784,7 @@
         <v>243.5449469681795</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>199.2891999529629</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,7 +9006,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9015,10 +9015,10 @@
         <v>239.5303559843452</v>
       </c>
       <c r="N15" t="n">
-        <v>224.8661044510106</v>
+        <v>224.8661044510107</v>
       </c>
       <c r="O15" t="n">
-        <v>241.5409238238862</v>
+        <v>202.2726358223031</v>
       </c>
       <c r="P15" t="n">
         <v>120.8043485046934</v>
@@ -9483,19 +9483,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>199.0322326107652</v>
       </c>
       <c r="M21" t="n">
         <v>239.5303559843452</v>
       </c>
       <c r="N21" t="n">
-        <v>102.1549380769536</v>
+        <v>224.8661044510107</v>
       </c>
       <c r="O21" t="n">
         <v>243.5449469681795</v>
       </c>
       <c r="P21" t="n">
-        <v>202.243203732874</v>
+        <v>120.8043485046934</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9726,7 +9726,7 @@
         <v>239.5303559843452</v>
       </c>
       <c r="N24" t="n">
-        <v>224.8661044510106</v>
+        <v>224.8661044510107</v>
       </c>
       <c r="O24" t="n">
         <v>236.4702728424631</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.8756704904437</v>
+        <v>179.8756704904436</v>
       </c>
       <c r="C11" t="n">
-        <v>155.9939274937892</v>
+        <v>155.993927493789</v>
       </c>
       <c r="D11" t="n">
-        <v>20.84942338078059</v>
+        <v>143.5605897548375</v>
       </c>
       <c r="E11" t="n">
-        <v>177.2673421742465</v>
+        <v>54.55617580018935</v>
       </c>
       <c r="F11" t="n">
-        <v>208.9876797526238</v>
+        <v>208.9876797526237</v>
       </c>
       <c r="G11" t="n">
-        <v>144.7395647674896</v>
+        <v>224.6159374354764</v>
       </c>
       <c r="H11" t="n">
-        <v>152.7005992377401</v>
+        <v>29.98943286368292</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.06238140451853</v>
+        <v>27.30351666670397</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.20762267428231</v>
       </c>
       <c r="U11" t="n">
-        <v>55.9381183540775</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.957047347705327</v>
+        <v>3.957047347705213</v>
       </c>
       <c r="W11" t="n">
-        <v>143.6848939383772</v>
+        <v>143.6848939383771</v>
       </c>
       <c r="X11" t="n">
-        <v>165.5711444073165</v>
+        <v>165.5711444073164</v>
       </c>
       <c r="Y11" t="n">
-        <v>65.3628311570032</v>
+        <v>188.0739975310601</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.16450411638672</v>
+        <v>179.8756704904437</v>
       </c>
       <c r="C14" t="n">
-        <v>127.3593258064164</v>
+        <v>155.9939274937892</v>
       </c>
       <c r="D14" t="n">
         <v>143.5605897548377</v>
       </c>
       <c r="E14" t="n">
-        <v>177.2673421742466</v>
+        <v>54.55617580018949</v>
       </c>
       <c r="F14" t="n">
-        <v>208.9876797526239</v>
+        <v>208.9876797526238</v>
       </c>
       <c r="G14" t="n">
-        <v>224.6159374354766</v>
+        <v>101.9047710614196</v>
       </c>
       <c r="H14" t="n">
-        <v>152.7005992377402</v>
+        <v>100.5547222495482</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46.38701225037789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>33.06238140451856</v>
       </c>
       <c r="T14" t="n">
-        <v>28.2076226742825</v>
+        <v>28.20762267428245</v>
       </c>
       <c r="U14" t="n">
-        <v>55.93811835407759</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.957047347705412</v>
+        <v>126.6682137217624</v>
       </c>
       <c r="W14" t="n">
-        <v>20.97372756432028</v>
+        <v>143.6848939383773</v>
       </c>
       <c r="X14" t="n">
-        <v>165.5711444073166</v>
+        <v>165.5711444073165</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.0739975310603</v>
+        <v>65.36283115700323</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.562039965909207e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374821.0979499953</v>
+        <v>374821.0979499954</v>
       </c>
       <c r="C2" t="n">
-        <v>374821.0979499954</v>
+        <v>374821.0979499955</v>
       </c>
       <c r="D2" t="n">
         <v>374821.0979499954</v>
       </c>
       <c r="E2" t="n">
-        <v>322995.7878337037</v>
+        <v>322995.7878337035</v>
       </c>
       <c r="F2" t="n">
         <v>322995.7878337036</v>
@@ -26332,10 +26332,10 @@
         <v>375580.3832648779</v>
       </c>
       <c r="I2" t="n">
-        <v>375580.3832648777</v>
+        <v>375580.3832648778</v>
       </c>
       <c r="J2" t="n">
-        <v>375580.3832648779</v>
+        <v>375580.3832648778</v>
       </c>
       <c r="K2" t="n">
         <v>375580.3832648779</v>
@@ -26347,13 +26347,13 @@
         <v>375580.3832648781</v>
       </c>
       <c r="N2" t="n">
+        <v>375580.3832648781</v>
+      </c>
+      <c r="O2" t="n">
         <v>375580.383264878</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>375580.3832648781</v>
-      </c>
-      <c r="P2" t="n">
-        <v>375580.3832648779</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101147.8182889625</v>
+        <v>101147.8182889624</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101147.8182889624</v>
+        <v>101147.8182889623</v>
       </c>
       <c r="M3" t="n">
-        <v>28312.50137812935</v>
+        <v>28312.50137812938</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68757.72909053828</v>
+        <v>68757.72909053839</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>338683.1874182847</v>
       </c>
       <c r="F4" t="n">
-        <v>338683.1874182846</v>
+        <v>338683.1874182847</v>
       </c>
       <c r="G4" t="n">
-        <v>409186.2663395517</v>
+        <v>409186.2663395518</v>
       </c>
       <c r="H4" t="n">
-        <v>409186.2663395517</v>
+        <v>409186.2663395518</v>
       </c>
       <c r="I4" t="n">
         <v>409186.2663395517</v>
@@ -26442,22 +26442,22 @@
         <v>407456.4004199019</v>
       </c>
       <c r="K4" t="n">
-        <v>407456.400419902</v>
+        <v>407456.4004199019</v>
       </c>
       <c r="L4" t="n">
-        <v>407456.4004199019</v>
+        <v>407456.4004199018</v>
       </c>
       <c r="M4" t="n">
-        <v>406912.0322437918</v>
+        <v>406912.0322437917</v>
       </c>
       <c r="N4" t="n">
-        <v>406912.0322437918</v>
+        <v>406912.0322437917</v>
       </c>
       <c r="O4" t="n">
         <v>407014.9608031418</v>
       </c>
       <c r="P4" t="n">
-        <v>407014.9608031418</v>
+        <v>407014.9608031419</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26051.38465538859</v>
+        <v>26051.3846553886</v>
       </c>
       <c r="F5" t="n">
         <v>26051.38465538859</v>
@@ -26494,13 +26494,13 @@
         <v>47579.79330930411</v>
       </c>
       <c r="K5" t="n">
-        <v>47579.79330930412</v>
+        <v>47579.79330930411</v>
       </c>
       <c r="L5" t="n">
-        <v>47579.79330930412</v>
+        <v>47579.79330930411</v>
       </c>
       <c r="M5" t="n">
-        <v>43094.2089917089</v>
+        <v>43094.20899170889</v>
       </c>
       <c r="N5" t="n">
         <v>43094.2089917089</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-104906.1468985601</v>
+        <v>-104910.6132827652</v>
       </c>
       <c r="C6" t="n">
-        <v>-104906.1468985598</v>
+        <v>-104910.613282765</v>
       </c>
       <c r="D6" t="n">
-        <v>-104906.1468985599</v>
+        <v>-104910.6132827652</v>
       </c>
       <c r="E6" t="n">
-        <v>-317159.7790049608</v>
+        <v>-317469.1001545562</v>
       </c>
       <c r="F6" t="n">
-        <v>-41738.78423996949</v>
+        <v>-42048.10538956482</v>
       </c>
       <c r="G6" t="n">
         <v>-171434.3309386934</v>
       </c>
       <c r="H6" t="n">
-        <v>-70286.51264973084</v>
+        <v>-70286.5126497309</v>
       </c>
       <c r="I6" t="n">
-        <v>-70286.51264973107</v>
+        <v>-70286.51264973101</v>
       </c>
       <c r="J6" t="n">
-        <v>-234520.3259113836</v>
+        <v>-234520.3259113837</v>
       </c>
       <c r="K6" t="n">
-        <v>-79455.81046432823</v>
+        <v>-79455.81046432815</v>
       </c>
       <c r="L6" t="n">
-        <v>-180603.6287532905</v>
+        <v>-180603.6287532903</v>
       </c>
       <c r="M6" t="n">
-        <v>-102738.359348752</v>
+        <v>-102738.3593487519</v>
       </c>
       <c r="N6" t="n">
-        <v>-74425.85797062269</v>
+        <v>-74425.85797062251</v>
       </c>
       <c r="O6" t="n">
-        <v>-144088.1159077151</v>
+        <v>-144088.1159077153</v>
       </c>
       <c r="P6" t="n">
-        <v>-75330.38681717697</v>
+        <v>-75330.38681717686</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="F2" t="n">
         <v>194.2115698873896</v>
@@ -26811,19 +26811,19 @@
         <v>122.711166374057</v>
       </c>
       <c r="J4" t="n">
+        <v>450.9276226390267</v>
+      </c>
+      <c r="K4" t="n">
+        <v>450.9276226390267</v>
+      </c>
+      <c r="L4" t="n">
         <v>450.9276226390269</v>
       </c>
-      <c r="K4" t="n">
-        <v>450.9276226390269</v>
-      </c>
-      <c r="L4" t="n">
-        <v>450.927622639027</v>
-      </c>
       <c r="M4" t="n">
-        <v>328.21645626497</v>
+        <v>328.2164562649698</v>
       </c>
       <c r="N4" t="n">
-        <v>328.21645626497</v>
+        <v>328.2164562649699</v>
       </c>
       <c r="O4" t="n">
         <v>352.065029707075</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4347728612031</v>
+        <v>126.434772861203</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.48581120507961</v>
+        <v>86.48581120507973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.434772861203</v>
+        <v>126.4347728612029</v>
       </c>
       <c r="M2" t="n">
-        <v>35.39062672266169</v>
+        <v>35.39062672266172</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.77318255390281</v>
+        <v>78.77318255390293</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.2164562649698</v>
+        <v>328.2164562649697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.84857344210508</v>
+        <v>23.84857344210513</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4347728612031</v>
+        <v>126.434772861203</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.48581120507961</v>
+        <v>86.48581120507973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="C11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="D11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="E11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="F11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="G11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="H11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="I11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="J11" t="n">
         <v>75.87638612011797</v>
       </c>
       <c r="K11" t="n">
-        <v>5.370482769838581</v>
+        <v>128.0816491438956</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>39.15968740621545</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>86.34782838981953</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>127.1547799941062</v>
+        <v>24.29952745807157</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.55996792937717</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="R11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="S11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="T11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="U11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="V11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="W11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="X11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
     </row>
     <row r="12">
@@ -28187,10 +28187,10 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I12" t="n">
-        <v>107.1669324054735</v>
+        <v>90.59232037944557</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.141010788491236</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R12" t="n">
         <v>134.3654897447971</v>
@@ -28220,22 +28220,22 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T12" t="n">
-        <v>194.2115698873897</v>
+        <v>92.23675554665691</v>
       </c>
       <c r="U12" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="V12" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="W12" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="X12" t="n">
-        <v>127.5981634238279</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
     </row>
     <row r="13">
@@ -28245,37 +28245,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="F13" t="n">
-        <v>147.4801106220848</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.6959906883239</v>
       </c>
       <c r="H13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="I13" t="n">
-        <v>194.2115698873897</v>
+        <v>164.7090929584652</v>
       </c>
       <c r="J13" t="n">
-        <v>119.9013618977274</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="K13" t="n">
-        <v>66.47413857346797</v>
+        <v>189.185304947525</v>
       </c>
       <c r="L13" t="n">
-        <v>154.1516967876649</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M13" t="n">
         <v>24.46691421597134</v>
@@ -28287,34 +28287,34 @@
         <v>36.80265358589529</v>
       </c>
       <c r="P13" t="n">
-        <v>180.6111333345277</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.2115698873897</v>
+        <v>183.7837667913421</v>
       </c>
       <c r="R13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="S13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="T13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="U13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="V13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="X13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
     </row>
     <row r="14">
@@ -28366,10 +28366,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>24.29952745807179</v>
+        <v>129.9511294160842</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.2115698873896</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R14" t="n">
         <v>194.2115698873896</v>
@@ -28412,22 +28412,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>49.11640546574264</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7388978542471</v>
+        <v>26.02773148019003</v>
       </c>
       <c r="H15" t="n">
         <v>125.6804106468432</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J15" t="n">
-        <v>40.5535259419123</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,13 +28448,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.141010788491236</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R15" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4847933493538</v>
+        <v>72.93536698259393</v>
       </c>
       <c r="T15" t="n">
         <v>194.2115698873896</v>
@@ -28485,7 +28485,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>194.2115698873896</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -28503,7 +28503,7 @@
         <v>165.7818614221724</v>
       </c>
       <c r="I16" t="n">
-        <v>194.2115698873896</v>
+        <v>164.7090929584652</v>
       </c>
       <c r="J16" t="n">
         <v>119.9013618977274</v>
@@ -28518,16 +28518,16 @@
         <v>24.46691421597134</v>
       </c>
       <c r="N16" t="n">
-        <v>15.78803834926581</v>
+        <v>138.4992047233228</v>
       </c>
       <c r="O16" t="n">
-        <v>159.5138199599523</v>
+        <v>145.1676868705844</v>
       </c>
       <c r="P16" t="n">
         <v>57.89996696047066</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.924538641763</v>
+        <v>126.8163712014149</v>
       </c>
       <c r="R16" t="n">
         <v>194.2115698873896</v>
@@ -28588,7 +28588,7 @@
         <v>75.87638612011797</v>
       </c>
       <c r="K17" t="n">
-        <v>5.370482769838581</v>
+        <v>5.370482769838588</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,22 +28603,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.55824001833904</v>
+        <v>13.55824001833905</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55996792937717</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R17" t="n">
-        <v>316.9227362614467</v>
+        <v>241.7160840155867</v>
       </c>
       <c r="S17" t="n">
-        <v>227.2739512919082</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="T17" t="n">
-        <v>268.3154274522917</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="U17" t="n">
-        <v>320.6463427485926</v>
+        <v>250.1496882414672</v>
       </c>
       <c r="V17" t="n">
         <v>320.6463427485926</v>
@@ -28661,7 +28661,7 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28685,25 +28685,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.141010788491236</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R18" t="n">
-        <v>11.65432337074006</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4847933493538</v>
+        <v>68.77362697529679</v>
       </c>
       <c r="T18" t="n">
         <v>92.23675554665692</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276940613373</v>
+        <v>114.5165276872803</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>184.5009454763313</v>
       </c>
       <c r="W18" t="n">
-        <v>195.0123741693571</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28825,37 +28825,37 @@
         <v>75.87638612011797</v>
       </c>
       <c r="K20" t="n">
-        <v>5.370482769838581</v>
+        <v>5.370482769838588</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>73.83527824152</v>
       </c>
       <c r="M20" t="n">
-        <v>39.15968740621545</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>44.71928865845148</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.55824001833904</v>
+        <v>13.55824001833905</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55996792937717</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R20" t="n">
-        <v>316.9227362614467</v>
+        <v>216.5339085722998</v>
       </c>
       <c r="S20" t="n">
-        <v>234.0104987763124</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4191925616721</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="U20" t="n">
-        <v>320.6463427485926</v>
+        <v>250.1496882414672</v>
       </c>
       <c r="V20" t="n">
         <v>320.6463427485926</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>175.8334314608698</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28886,13 +28886,13 @@
         <v>36.46114870252151</v>
       </c>
       <c r="E21" t="n">
-        <v>170.9105089030038</v>
+        <v>49.11640546574264</v>
       </c>
       <c r="F21" t="n">
-        <v>36.11227274587131</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7388978542471</v>
+        <v>26.02773148019003</v>
       </c>
       <c r="H21" t="n">
         <v>125.6804106468432</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.141010788491236</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R21" t="n">
         <v>134.3654897447971</v>
@@ -28934,7 +28934,7 @@
         <v>214.947921920714</v>
       </c>
       <c r="U21" t="n">
-        <v>114.5165276872803</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -29059,10 +29059,10 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J23" t="n">
-        <v>192.269275517863</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K23" t="n">
-        <v>5.370482769838581</v>
+        <v>5.370482769838588</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,10 +29077,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.55824001833904</v>
+        <v>13.55824001833905</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55996792937717</v>
+        <v>204.9528573271223</v>
       </c>
       <c r="R23" t="n">
         <v>316.9227362614466</v>
@@ -29120,7 +29120,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>36.46114870252151</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29132,7 +29132,7 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H24" t="n">
-        <v>125.6804106468432</v>
+        <v>2.969244272786199</v>
       </c>
       <c r="I24" t="n">
         <v>107.1669324054735</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R24" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S24" t="n">
-        <v>89.54180879557569</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T24" t="n">
-        <v>92.23675554665691</v>
+        <v>106.8639265784446</v>
       </c>
       <c r="U24" t="n">
-        <v>114.5165276872803</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>117.9377545413452</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>94.60174806541357</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>14.734807617738</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29369,7 +29369,7 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.141010788491236</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.3654897447971</v>
@@ -29408,7 +29408,7 @@
         <v>212.9205840662826</v>
       </c>
       <c r="U27" t="n">
-        <v>212.9205840662826</v>
+        <v>144.2860814942852</v>
       </c>
       <c r="V27" t="n">
         <v>212.9205840662826</v>
@@ -29420,7 +29420,7 @@
         <v>212.9205840662826</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29442,10 +29442,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>152.6630184475832</v>
+        <v>160.7340803212671</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6959906883239</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H28" t="n">
         <v>165.7818614221724</v>
@@ -29454,7 +29454,7 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J28" t="n">
-        <v>119.9013618977274</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="K28" t="n">
         <v>66.47413857346797</v>
@@ -29472,13 +29472,13 @@
         <v>36.80265358589529</v>
       </c>
       <c r="P28" t="n">
-        <v>212.9205840662826</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8163712014149</v>
       </c>
       <c r="R28" t="n">
-        <v>203.2148443806685</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S28" t="n">
         <v>212.9205840662826</v>
@@ -29533,7 +29533,7 @@
         <v>212.9205840662827</v>
       </c>
       <c r="J29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662811</v>
       </c>
       <c r="K29" t="n">
         <v>212.9205840662827</v>
@@ -29545,7 +29545,7 @@
         <v>212.9205840662827</v>
       </c>
       <c r="N29" t="n">
-        <v>212.9205840662817</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="O29" t="n">
         <v>212.9205840662827</v>
@@ -29594,16 +29594,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>158.8162178072448</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H30" t="n">
         <v>125.6804106468432</v>
@@ -29612,7 +29612,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,19 +29633,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.141010788491236</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>212.9205840662827</v>
       </c>
       <c r="U30" t="n">
-        <v>20.88008548209595</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="V30" t="n">
         <v>212.9205840662827</v>
@@ -29657,7 +29657,7 @@
         <v>212.9205840662827</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29700,7 +29700,7 @@
         <v>31.44053041360786</v>
       </c>
       <c r="M31" t="n">
-        <v>24.46691421597134</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="N31" t="n">
         <v>15.78803834926581</v>
@@ -29709,10 +29709,10 @@
         <v>36.80265358589529</v>
       </c>
       <c r="P31" t="n">
-        <v>212.9205840662827</v>
+        <v>105.9409842606792</v>
       </c>
       <c r="Q31" t="n">
-        <v>208.2904412461227</v>
+        <v>126.8163712014149</v>
       </c>
       <c r="R31" t="n">
         <v>203.2148443806685</v>
@@ -29834,10 +29834,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>168.3789223388546</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -29870,19 +29870,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R33" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>212.9205840662826</v>
+        <v>65.94327537384677</v>
       </c>
       <c r="V33" t="n">
         <v>212.9205840662826</v>
@@ -29907,7 +29907,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29916,7 +29916,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G34" t="n">
         <v>168.6959906883239</v>
@@ -29931,13 +29931,13 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K34" t="n">
-        <v>66.47413857346797</v>
+        <v>124.594489988411</v>
       </c>
       <c r="L34" t="n">
         <v>31.44053041360786</v>
       </c>
       <c r="M34" t="n">
-        <v>212.7501102586743</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N34" t="n">
         <v>15.78803834926581</v>
@@ -29952,7 +29952,7 @@
         <v>126.8163712014149</v>
       </c>
       <c r="R34" t="n">
-        <v>203.2148443806685</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S34" t="n">
         <v>212.9205840662826</v>
@@ -30004,19 +30004,19 @@
         <v>248.3112107889443</v>
       </c>
       <c r="I35" t="n">
-        <v>248.3112107889443</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="J35" t="n">
         <v>248.3112107889443</v>
       </c>
       <c r="K35" t="n">
+        <v>5.370482769838588</v>
+      </c>
+      <c r="L35" t="n">
         <v>248.3112107889443</v>
       </c>
-      <c r="L35" t="n">
-        <v>155.2379172013493</v>
-      </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>244.6649772971283</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>248.3112107889443</v>
+        <v>140.189037077467</v>
       </c>
       <c r="Q35" t="n">
         <v>248.3112107889443</v>
@@ -30034,7 +30034,7 @@
         <v>248.3112107889443</v>
       </c>
       <c r="S35" t="n">
-        <v>227.2739512919082</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="T35" t="n">
         <v>248.3112107889443</v>
@@ -30062,22 +30062,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>93.38160764112408</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>46.23093801207669</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30086,7 +30086,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30150,7 +30150,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>225.6926512841878</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -30186,7 +30186,7 @@
         <v>57.89996696047066</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.8163712014149</v>
+        <v>210.8328812733778</v>
       </c>
       <c r="R37" t="n">
         <v>203.2148443806685</v>
@@ -30247,25 +30247,25 @@
         <v>248.3112107889443</v>
       </c>
       <c r="K38" t="n">
+        <v>35.72868324841264</v>
+      </c>
+      <c r="L38" t="n">
         <v>248.3112107889443</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
       <c r="M38" t="n">
-        <v>244.6649772971284</v>
+        <v>244.6649772971283</v>
       </c>
       <c r="N38" t="n">
-        <v>124.28865117779</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="P38" t="n">
         <v>13.55824001833905</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.3112107889443</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R38" t="n">
         <v>248.3112107889443</v>
@@ -30308,16 +30308,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>107.1669324054735</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R39" t="n">
         <v>134.3654897447971</v>
@@ -30353,22 +30353,22 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>171.850004558611</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>48.3406634776444</v>
       </c>
     </row>
     <row r="40">
@@ -30384,7 +30384,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>145.1826502507107</v>
+        <v>229.1991603226735</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
@@ -30405,7 +30405,7 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K40" t="n">
-        <v>119.3207106706549</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L40" t="n">
         <v>31.44053041360786</v>
@@ -30447,7 +30447,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.3112107889443</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -30481,37 +30481,37 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J41" t="n">
-        <v>240.5985821377675</v>
+        <v>109.4454629156842</v>
       </c>
       <c r="K41" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="L41" t="n">
-        <v>240.5985821377675</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>54.35496937720319</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="P41" t="n">
-        <v>13.55824001833905</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="Q41" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="R41" t="n">
+        <v>194.2115698873897</v>
+      </c>
+      <c r="S41" t="n">
+        <v>227.2739512919082</v>
+      </c>
+      <c r="T41" t="n">
         <v>240.5985821377675</v>
-      </c>
-      <c r="S41" t="n">
-        <v>240.5985821377675</v>
-      </c>
-      <c r="T41" t="n">
-        <v>222.4191925616721</v>
       </c>
       <c r="U41" t="n">
         <v>240.5985821377675</v>
@@ -30539,7 +30539,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30548,19 +30548,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>115.2323091751254</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30590,10 +30590,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>199.070309004528</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V42" t="n">
         <v>240.5985821377675</v>
@@ -30621,13 +30621,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>240.5985821377675</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>147.8679260181226</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.6959906883239</v>
@@ -30648,7 +30648,7 @@
         <v>31.44053041360786</v>
       </c>
       <c r="M43" t="n">
-        <v>24.46691421597134</v>
+        <v>128.8238899027041</v>
       </c>
       <c r="N43" t="n">
         <v>15.78803834926581</v>
@@ -30718,37 +30718,37 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J44" t="n">
-        <v>75.87638612011796</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="K44" t="n">
-        <v>5.370482769838546</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="L44" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>240.5985821377675</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
       <c r="O44" t="n">
-        <v>240.5895534892123</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="P44" t="n">
-        <v>240.5985821377675</v>
+        <v>13.55824001833905</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5985821377675</v>
+        <v>95.88722289734525</v>
       </c>
       <c r="R44" t="n">
-        <v>240.5985821377675</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S44" t="n">
         <v>227.2739512919082</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4191925616721</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="U44" t="n">
         <v>240.5985821377675</v>
@@ -30776,19 +30776,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>101.3577085102148</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H45" t="n">
         <v>125.6804106468432</v>
@@ -30797,7 +30797,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93601990319844</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,19 +30818,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R45" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.947921920714</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276940613373</v>
+        <v>74.33403923354447</v>
       </c>
       <c r="V45" t="n">
         <v>240.5985821377675</v>
@@ -30839,7 +30839,7 @@
         <v>240.5985821377675</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>229.1756514637911</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30882,22 +30882,22 @@
         <v>66.47413857346797</v>
       </c>
       <c r="L46" t="n">
-        <v>31.44053041360784</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46691421597133</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78803834926579</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O46" t="n">
-        <v>36.80265358589527</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89996696047065</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q46" t="n">
-        <v>231.1733468881477</v>
+        <v>126.8163712014149</v>
       </c>
       <c r="R46" t="n">
         <v>203.2148443806685</v>
@@ -30906,7 +30906,7 @@
         <v>235.3546681313223</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7411167026008</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="U46" t="n">
         <v>240.5985821377675</v>
@@ -31756,16 +31756,16 @@
         <v>4.274541793638704</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J11" t="n">
         <v>35.4250107709355</v>
       </c>
       <c r="K11" t="n">
-        <v>53.09290815892295</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L11" t="n">
-        <v>65.86644736722961</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M11" t="n">
         <v>73.28911380175882</v>
@@ -31780,7 +31780,7 @@
         <v>60.02045190796905</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07285976983297</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R11" t="n">
         <v>26.21854616815891</v>
@@ -31789,10 +31789,10 @@
         <v>9.511155486150816</v>
       </c>
       <c r="T11" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339078173964079</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233205408447794</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H12" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I12" t="n">
         <v>7.688887042243501</v>
@@ -31841,13 +31841,13 @@
         <v>21.09889372954997</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06136996615019</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L12" t="n">
-        <v>48.48896216895089</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M12" t="n">
-        <v>56.58433177457413</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N12" t="n">
         <v>58.08195066471303</v>
@@ -31856,7 +31856,7 @@
         <v>53.13363762809976</v>
       </c>
       <c r="P12" t="n">
-        <v>42.6444285407895</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q12" t="n">
         <v>28.50667114362482</v>
@@ -31868,7 +31868,7 @@
         <v>4.14808109858614</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9001384957734744</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U12" t="n">
         <v>0.01469214084505128</v>
@@ -31914,7 +31914,7 @@
         <v>1.664595472267515</v>
       </c>
       <c r="I13" t="n">
-        <v>5.630349511514251</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J13" t="n">
         <v>13.2367678812111</v>
@@ -31929,7 +31929,7 @@
         <v>29.34828193078603</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65044538310745</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O13" t="n">
         <v>26.46332352026106</v>
@@ -31938,7 +31938,7 @@
         <v>22.64394495199079</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R13" t="n">
         <v>8.418291621508304</v>
@@ -31947,7 +31947,7 @@
         <v>3.262811370487549</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7999589692901139</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U13" t="n">
         <v>0.0102122421611504</v>
@@ -31993,16 +31993,16 @@
         <v>4.274541793638704</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J14" t="n">
         <v>35.4250107709355</v>
       </c>
       <c r="K14" t="n">
-        <v>53.09290815892295</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L14" t="n">
-        <v>65.86644736722961</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M14" t="n">
         <v>73.28911380175882</v>
@@ -32017,7 +32017,7 @@
         <v>60.02045190796905</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07285976983297</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R14" t="n">
         <v>26.21854616815891</v>
@@ -32026,10 +32026,10 @@
         <v>9.511155486150816</v>
       </c>
       <c r="T14" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339078173964079</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2233205408447794</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H15" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I15" t="n">
         <v>7.688887042243501</v>
@@ -32078,13 +32078,13 @@
         <v>21.09889372954997</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06136996615019</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L15" t="n">
-        <v>48.48896216895089</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M15" t="n">
-        <v>56.58433177457413</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N15" t="n">
         <v>58.08195066471303</v>
@@ -32093,7 +32093,7 @@
         <v>53.13363762809976</v>
       </c>
       <c r="P15" t="n">
-        <v>42.6444285407895</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q15" t="n">
         <v>28.50667114362482</v>
@@ -32105,7 +32105,7 @@
         <v>4.14808109858614</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9001384957734744</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U15" t="n">
         <v>0.01469214084505128</v>
@@ -32151,7 +32151,7 @@
         <v>1.664595472267515</v>
       </c>
       <c r="I16" t="n">
-        <v>5.630349511514251</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J16" t="n">
         <v>13.2367678812111</v>
@@ -32166,7 +32166,7 @@
         <v>29.34828193078603</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65044538310745</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O16" t="n">
         <v>26.46332352026106</v>
@@ -32175,7 +32175,7 @@
         <v>22.64394495199079</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R16" t="n">
         <v>8.418291621508304</v>
@@ -32184,7 +32184,7 @@
         <v>3.262811370487549</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7999589692901139</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U16" t="n">
         <v>0.0102122421611504</v>
@@ -32230,16 +32230,16 @@
         <v>4.274541793638704</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J17" t="n">
         <v>35.4250107709355</v>
       </c>
       <c r="K17" t="n">
-        <v>53.09290815892295</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L17" t="n">
-        <v>65.86644736722961</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M17" t="n">
         <v>73.28911380175882</v>
@@ -32254,7 +32254,7 @@
         <v>60.02045190796905</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07285976983297</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R17" t="n">
         <v>26.21854616815891</v>
@@ -32263,10 +32263,10 @@
         <v>9.511155486150816</v>
       </c>
       <c r="T17" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339078173964079</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2233205408447794</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H18" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I18" t="n">
         <v>7.688887042243501</v>
@@ -32315,13 +32315,13 @@
         <v>21.09889372954997</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06136996615019</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L18" t="n">
-        <v>48.48896216895089</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M18" t="n">
-        <v>56.58433177457413</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N18" t="n">
         <v>58.08195066471303</v>
@@ -32330,7 +32330,7 @@
         <v>53.13363762809976</v>
       </c>
       <c r="P18" t="n">
-        <v>42.6444285407895</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q18" t="n">
         <v>28.50667114362482</v>
@@ -32342,7 +32342,7 @@
         <v>4.14808109858614</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9001384957734744</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U18" t="n">
         <v>0.01469214084505128</v>
@@ -32388,7 +32388,7 @@
         <v>1.664595472267515</v>
       </c>
       <c r="I19" t="n">
-        <v>5.630349511514251</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J19" t="n">
         <v>13.2367678812111</v>
@@ -32403,7 +32403,7 @@
         <v>29.34828193078603</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65044538310745</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O19" t="n">
         <v>26.46332352026106</v>
@@ -32412,7 +32412,7 @@
         <v>22.64394495199079</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R19" t="n">
         <v>8.418291621508304</v>
@@ -32421,7 +32421,7 @@
         <v>3.262811370487549</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7999589692901139</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U19" t="n">
         <v>0.0102122421611504</v>
@@ -32467,16 +32467,16 @@
         <v>4.274541793638704</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J20" t="n">
         <v>35.4250107709355</v>
       </c>
       <c r="K20" t="n">
-        <v>53.09290815892295</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L20" t="n">
-        <v>65.86644736722961</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M20" t="n">
         <v>73.28911380175882</v>
@@ -32491,7 +32491,7 @@
         <v>60.02045190796905</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07285976983297</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R20" t="n">
         <v>26.21854616815891</v>
@@ -32500,10 +32500,10 @@
         <v>9.511155486150816</v>
       </c>
       <c r="T20" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339078173964079</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233205408447794</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H21" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I21" t="n">
         <v>7.688887042243501</v>
@@ -32552,13 +32552,13 @@
         <v>21.09889372954997</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06136996615019</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L21" t="n">
-        <v>48.48896216895089</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M21" t="n">
-        <v>56.58433177457413</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N21" t="n">
         <v>58.08195066471303</v>
@@ -32567,7 +32567,7 @@
         <v>53.13363762809976</v>
       </c>
       <c r="P21" t="n">
-        <v>42.6444285407895</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q21" t="n">
         <v>28.50667114362482</v>
@@ -32579,7 +32579,7 @@
         <v>4.14808109858614</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9001384957734744</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U21" t="n">
         <v>0.01469214084505128</v>
@@ -32625,7 +32625,7 @@
         <v>1.664595472267515</v>
       </c>
       <c r="I22" t="n">
-        <v>5.630349511514251</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J22" t="n">
         <v>13.2367678812111</v>
@@ -32640,7 +32640,7 @@
         <v>29.34828193078603</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65044538310745</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O22" t="n">
         <v>26.46332352026106</v>
@@ -32649,7 +32649,7 @@
         <v>22.64394495199079</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R22" t="n">
         <v>8.418291621508304</v>
@@ -32658,7 +32658,7 @@
         <v>3.262811370487549</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7999589692901139</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U22" t="n">
         <v>0.0102122421611504</v>
@@ -32704,16 +32704,16 @@
         <v>4.274541793638704</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J23" t="n">
         <v>35.4250107709355</v>
       </c>
       <c r="K23" t="n">
-        <v>53.09290815892295</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L23" t="n">
-        <v>65.86644736722961</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M23" t="n">
         <v>73.28911380175882</v>
@@ -32728,7 +32728,7 @@
         <v>60.02045190796905</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07285976983297</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R23" t="n">
         <v>26.21854616815891</v>
@@ -32737,10 +32737,10 @@
         <v>9.511155486150816</v>
       </c>
       <c r="T23" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339078173964079</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2233205408447794</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H24" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I24" t="n">
         <v>7.688887042243501</v>
@@ -32789,13 +32789,13 @@
         <v>21.09889372954997</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06136996615019</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L24" t="n">
-        <v>48.48896216895089</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M24" t="n">
-        <v>56.58433177457413</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N24" t="n">
         <v>58.08195066471303</v>
@@ -32804,7 +32804,7 @@
         <v>53.13363762809976</v>
       </c>
       <c r="P24" t="n">
-        <v>42.6444285407895</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q24" t="n">
         <v>28.50667114362482</v>
@@ -32816,7 +32816,7 @@
         <v>4.14808109858614</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9001384957734744</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U24" t="n">
         <v>0.01469214084505128</v>
@@ -32862,7 +32862,7 @@
         <v>1.664595472267515</v>
       </c>
       <c r="I25" t="n">
-        <v>5.630349511514251</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J25" t="n">
         <v>13.2367678812111</v>
@@ -32877,7 +32877,7 @@
         <v>29.34828193078603</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65044538310745</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O25" t="n">
         <v>26.46332352026106</v>
@@ -32886,7 +32886,7 @@
         <v>22.64394495199079</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R25" t="n">
         <v>8.418291621508304</v>
@@ -32895,7 +32895,7 @@
         <v>3.262811370487549</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7999589692901139</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U25" t="n">
         <v>0.0102122421611504</v>
@@ -32941,16 +32941,16 @@
         <v>4.274541793638704</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J26" t="n">
         <v>35.4250107709355</v>
       </c>
       <c r="K26" t="n">
-        <v>53.09290815892295</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L26" t="n">
-        <v>65.86644736722961</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M26" t="n">
         <v>73.28911380175882</v>
@@ -32965,7 +32965,7 @@
         <v>60.02045190796905</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07285976983297</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R26" t="n">
         <v>26.21854616815891</v>
@@ -32974,10 +32974,10 @@
         <v>9.511155486150816</v>
       </c>
       <c r="T26" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339078173964079</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2233205408447794</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H27" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I27" t="n">
         <v>7.688887042243501</v>
@@ -33026,13 +33026,13 @@
         <v>21.09889372954997</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06136996615019</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L27" t="n">
-        <v>48.48896216895089</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M27" t="n">
-        <v>56.58433177457413</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N27" t="n">
         <v>58.08195066471303</v>
@@ -33041,7 +33041,7 @@
         <v>53.13363762809976</v>
       </c>
       <c r="P27" t="n">
-        <v>42.6444285407895</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q27" t="n">
         <v>28.50667114362482</v>
@@ -33053,7 +33053,7 @@
         <v>4.14808109858614</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9001384957734744</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U27" t="n">
         <v>0.01469214084505128</v>
@@ -33099,7 +33099,7 @@
         <v>1.664595472267515</v>
       </c>
       <c r="I28" t="n">
-        <v>5.630349511514251</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J28" t="n">
         <v>13.2367678812111</v>
@@ -33114,7 +33114,7 @@
         <v>29.34828193078603</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65044538310745</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O28" t="n">
         <v>26.46332352026106</v>
@@ -33123,7 +33123,7 @@
         <v>22.64394495199079</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R28" t="n">
         <v>8.418291621508304</v>
@@ -33132,7 +33132,7 @@
         <v>3.262811370487549</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7999589692901139</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U28" t="n">
         <v>0.0102122421611504</v>
@@ -33178,16 +33178,16 @@
         <v>4.274541793638704</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J29" t="n">
         <v>35.4250107709355</v>
       </c>
       <c r="K29" t="n">
-        <v>53.09290815892295</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L29" t="n">
-        <v>65.86644736722961</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M29" t="n">
         <v>73.28911380175882</v>
@@ -33202,7 +33202,7 @@
         <v>60.02045190796905</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07285976983297</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R29" t="n">
         <v>26.21854616815891</v>
@@ -33211,10 +33211,10 @@
         <v>9.511155486150816</v>
       </c>
       <c r="T29" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339078173964079</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2233205408447794</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H30" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I30" t="n">
         <v>7.688887042243501</v>
@@ -33263,13 +33263,13 @@
         <v>21.09889372954997</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06136996615019</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L30" t="n">
-        <v>48.48896216895089</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M30" t="n">
-        <v>56.58433177457413</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N30" t="n">
         <v>58.08195066471303</v>
@@ -33278,7 +33278,7 @@
         <v>53.13363762809976</v>
       </c>
       <c r="P30" t="n">
-        <v>42.6444285407895</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q30" t="n">
         <v>28.50667114362482</v>
@@ -33290,7 +33290,7 @@
         <v>4.14808109858614</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9001384957734744</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U30" t="n">
         <v>0.01469214084505128</v>
@@ -33336,7 +33336,7 @@
         <v>1.664595472267515</v>
       </c>
       <c r="I31" t="n">
-        <v>5.630349511514251</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J31" t="n">
         <v>13.2367678812111</v>
@@ -33351,7 +33351,7 @@
         <v>29.34828193078603</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65044538310745</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O31" t="n">
         <v>26.46332352026106</v>
@@ -33360,7 +33360,7 @@
         <v>22.64394495199079</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R31" t="n">
         <v>8.418291621508304</v>
@@ -33369,7 +33369,7 @@
         <v>3.262811370487549</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7999589692901139</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U31" t="n">
         <v>0.0102122421611504</v>
@@ -33415,16 +33415,16 @@
         <v>4.274541793638704</v>
       </c>
       <c r="I32" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J32" t="n">
         <v>35.4250107709355</v>
       </c>
       <c r="K32" t="n">
-        <v>53.09290815892295</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L32" t="n">
-        <v>65.86644736722961</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M32" t="n">
         <v>73.28911380175882</v>
@@ -33439,7 +33439,7 @@
         <v>60.02045190796905</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07285976983297</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R32" t="n">
         <v>26.21854616815891</v>
@@ -33448,10 +33448,10 @@
         <v>9.511155486150816</v>
       </c>
       <c r="T32" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03339078173964079</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2233205408447794</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H33" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I33" t="n">
         <v>7.688887042243501</v>
@@ -33500,13 +33500,13 @@
         <v>21.09889372954997</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06136996615019</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L33" t="n">
-        <v>48.48896216895089</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M33" t="n">
-        <v>56.58433177457413</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N33" t="n">
         <v>58.08195066471303</v>
@@ -33515,7 +33515,7 @@
         <v>53.13363762809976</v>
       </c>
       <c r="P33" t="n">
-        <v>42.6444285407895</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q33" t="n">
         <v>28.50667114362482</v>
@@ -33527,7 +33527,7 @@
         <v>4.14808109858614</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9001384957734744</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U33" t="n">
         <v>0.01469214084505128</v>
@@ -33573,7 +33573,7 @@
         <v>1.664595472267515</v>
       </c>
       <c r="I34" t="n">
-        <v>5.630349511514251</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J34" t="n">
         <v>13.2367678812111</v>
@@ -33588,7 +33588,7 @@
         <v>29.34828193078603</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65044538310745</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O34" t="n">
         <v>26.46332352026106</v>
@@ -33597,7 +33597,7 @@
         <v>22.64394495199079</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R34" t="n">
         <v>8.418291621508304</v>
@@ -33606,7 +33606,7 @@
         <v>3.262811370487549</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7999589692901139</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U34" t="n">
         <v>0.0102122421611504</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4173847717455101</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H44" t="n">
-        <v>4.274541793638707</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I44" t="n">
-        <v>16.0912264127188</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J44" t="n">
-        <v>35.42501077093552</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K44" t="n">
-        <v>53.09290815892298</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L44" t="n">
-        <v>65.86644736722965</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M44" t="n">
-        <v>73.28911380175886</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N44" t="n">
-        <v>74.47500828448079</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O44" t="n">
-        <v>70.32463846043638</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02045190796908</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07285976983299</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R44" t="n">
-        <v>26.21854616815892</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S44" t="n">
-        <v>9.511155486150821</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T44" t="n">
-        <v>1.827101838315972</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0333907817396408</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233205408447795</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H45" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I45" t="n">
-        <v>7.688887042243506</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J45" t="n">
-        <v>21.09889372954998</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06136996615021</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L45" t="n">
-        <v>48.48896216895092</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M45" t="n">
-        <v>56.58433177457416</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N45" t="n">
-        <v>58.08195066471307</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O45" t="n">
-        <v>53.13363762809979</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P45" t="n">
-        <v>42.64442854078952</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.50667114362484</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86546305350307</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148081098586142</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9001384957734749</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01469214084505129</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872244396210906</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664595472267516</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I46" t="n">
-        <v>5.630349511514255</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J46" t="n">
-        <v>13.23676788121111</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75207580325034</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83516805057561</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M46" t="n">
-        <v>29.34828193078605</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65044538310746</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46332352026107</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64394495199081</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R46" t="n">
-        <v>8.41829162150831</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S46" t="n">
-        <v>3.262811370487551</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7999589692901143</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01021224216115041</v>
+        <v>0.0102122421611504</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="L11" t="n">
-        <v>48.87588813253704</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M11" t="n">
-        <v>122.711166374057</v>
+        <v>83.55147896784158</v>
       </c>
       <c r="N11" t="n">
         <v>77.99187771560555</v>
       </c>
       <c r="O11" t="n">
-        <v>122.711166374057</v>
+        <v>36.3633379842375</v>
       </c>
       <c r="P11" t="n">
-        <v>113.5965399757672</v>
+        <v>10.74128743973252</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>105.6516019580126</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L12" t="n">
-        <v>119.7571625941459</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>35.14761765577794</v>
+        <v>122.711166374057</v>
       </c>
       <c r="N12" t="n">
         <v>122.711166374057</v>
@@ -35504,7 +35504,7 @@
         <v>122.711166374057</v>
       </c>
       <c r="P12" t="n">
-        <v>85.55952557398589</v>
+        <v>78.48485144826952</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,37 +35541,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.59464922242168</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27.75438891541742</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.53542867516478</v>
       </c>
       <c r="F13" t="n">
-        <v>8.553228403638176</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>28.4297084652173</v>
+        <v>28.42970846521741</v>
       </c>
       <c r="I13" t="n">
-        <v>29.50247692892449</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.31020798966235</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="L13" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.39519868597472</v>
+        <v>56.96739558992711</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>122.711166374057</v>
       </c>
       <c r="L14" t="n">
-        <v>48.87588813253704</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M14" t="n">
         <v>83.55147896784158</v>
@@ -35662,10 +35662,10 @@
         <v>36.3633379842375</v>
       </c>
       <c r="P14" t="n">
-        <v>10.74128743973275</v>
+        <v>116.3928893977451</v>
       </c>
       <c r="Q14" t="n">
-        <v>105.6516019580124</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L15" t="n">
         <v>119.7571625941459</v>
@@ -35738,7 +35738,7 @@
         <v>122.711166374057</v>
       </c>
       <c r="O15" t="n">
-        <v>120.7071432297638</v>
+        <v>81.43885522818069</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35781,7 +35781,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>27.75438891541722</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35793,13 +35793,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>25.5155791990657</v>
+        <v>25.51557919906575</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>29.50247692892441</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35814,16 +35814,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="O16" t="n">
-        <v>122.711166374057</v>
+        <v>108.3650332846891</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.10816744034802</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.87588813253704</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M17" t="n">
         <v>83.55147896784158</v>
@@ -35905,16 +35905,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>122.711166374057</v>
+        <v>47.50451412819708</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>93.37239145668445</v>
       </c>
       <c r="T17" t="n">
-        <v>45.89623489061967</v>
+        <v>98.22715018692057</v>
       </c>
       <c r="U17" t="n">
-        <v>70.49665450712548</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>122.711166374057</v>
       </c>
       <c r="P18" t="n">
-        <v>85.55952557398589</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,13 +36124,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.87588813253704</v>
+        <v>122.711166374057</v>
       </c>
       <c r="M20" t="n">
+        <v>83.55147896784158</v>
+      </c>
+      <c r="N20" t="n">
         <v>122.711166374057</v>
-      </c>
-      <c r="N20" t="n">
-        <v>77.99187771560555</v>
       </c>
       <c r="O20" t="n">
         <v>36.3633379842375</v>
@@ -36142,16 +36142,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>122.711166374057</v>
+        <v>22.32233868491011</v>
       </c>
       <c r="S20" t="n">
-        <v>6.73654748440423</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>98.22715018692057</v>
       </c>
       <c r="U20" t="n">
-        <v>70.49665450712548</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>39.26828800158319</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7571625941459</v>
+        <v>78.48485144826952</v>
       </c>
       <c r="M21" t="n">
         <v>122.711166374057</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="O21" t="n">
         <v>122.711166374057</v>
       </c>
       <c r="P21" t="n">
-        <v>81.43885522818063</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.3928893977451</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.87588813253704</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M23" t="n">
         <v>83.55147896784158</v>
@@ -36376,7 +36376,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>116.3928893977451</v>
       </c>
       <c r="R23" t="n">
         <v>122.711166374057</v>
@@ -36452,7 +36452,7 @@
         <v>115.6364922483407</v>
       </c>
       <c r="P24" t="n">
-        <v>85.55952557398589</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>124.3606161369054</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70901417889296</v>
+        <v>18.70901417889294</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>184.9576916997117</v>
       </c>
       <c r="N27" t="n">
-        <v>208.4589204976691</v>
+        <v>208.458920497669</v>
       </c>
       <c r="O27" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P27" t="n">
-        <v>85.55952557398589</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36738,10 +36738,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>13.73613622913658</v>
+        <v>21.80719810282047</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.22459337795873</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.01922216855517</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36768,13 +36768,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0206171058119</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.705739685614136</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0441979461647</v>
+        <v>137.0441979461631</v>
       </c>
       <c r="K29" t="n">
         <v>207.5501012964441</v>
@@ -36841,13 +36841,13 @@
         <v>296.4720630341243</v>
       </c>
       <c r="N29" t="n">
-        <v>290.9124617818873</v>
+        <v>290.9124617818882</v>
       </c>
       <c r="O29" t="n">
         <v>249.2839220505202</v>
       </c>
       <c r="P29" t="n">
-        <v>199.3623440479437</v>
+        <v>199.3623440479436</v>
       </c>
       <c r="Q29" t="n">
         <v>124.3606161369055</v>
@@ -36920,13 +36920,13 @@
         <v>184.9576916997117</v>
       </c>
       <c r="N30" t="n">
-        <v>208.4589204976691</v>
+        <v>208.458920497669</v>
       </c>
       <c r="O30" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P30" t="n">
-        <v>85.55952557398589</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>188.4536698503113</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.020617105812</v>
+        <v>48.04101730020857</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.4740700447078</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,19 +37078,19 @@
         <v>296.4720630341242</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9124617818882</v>
+        <v>290.9124617818881</v>
       </c>
       <c r="O32" t="n">
         <v>249.2839220505201</v>
       </c>
       <c r="P32" t="n">
-        <v>199.3623440479436</v>
+        <v>199.3623440479435</v>
       </c>
       <c r="Q32" t="n">
         <v>124.3606161369054</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70901417889296</v>
+        <v>18.70901417889293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>184.9576916997117</v>
       </c>
       <c r="N33" t="n">
-        <v>208.4589204976691</v>
+        <v>208.458920497669</v>
       </c>
       <c r="O33" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P33" t="n">
-        <v>85.55952557398589</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.46340309431022</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>73.99370184783592</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,19 +37221,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.21149110781744</v>
+        <v>48.21149110781741</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>58.12035141494301</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>188.283196042703</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.705739685614107</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,19 +37300,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.712628651176772</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>172.4348246688263</v>
       </c>
       <c r="K35" t="n">
-        <v>242.9407280191057</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>204.1138053338863</v>
+        <v>297.1870989214813</v>
       </c>
       <c r="M35" t="n">
-        <v>83.55147896784158</v>
+        <v>328.2164562649698</v>
       </c>
       <c r="N35" t="n">
         <v>77.99187771560555</v>
@@ -37321,7 +37321,7 @@
         <v>36.3633379842375</v>
       </c>
       <c r="P35" t="n">
-        <v>234.7529707706053</v>
+        <v>126.6307970591279</v>
       </c>
       <c r="Q35" t="n">
         <v>159.7512428595671</v>
@@ -37330,7 +37330,7 @@
         <v>54.09964090155465</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>21.03725949703611</v>
       </c>
       <c r="T35" t="n">
         <v>25.89201822727222</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>84.01651007196286</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>84.01651007196284</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>172.4348246688263</v>
       </c>
       <c r="K38" t="n">
-        <v>242.9407280191057</v>
+        <v>30.35820047857405</v>
       </c>
       <c r="L38" t="n">
-        <v>48.87588813253703</v>
+        <v>297.1870989214813</v>
       </c>
       <c r="M38" t="n">
-        <v>328.21645626497</v>
+        <v>328.2164562649699</v>
       </c>
       <c r="N38" t="n">
-        <v>202.2805288933956</v>
+        <v>77.99187771560555</v>
       </c>
       <c r="O38" t="n">
-        <v>36.3633379842375</v>
+        <v>284.6745487731818</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.7512428595671</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>54.09964090155465</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>84.01651007196286</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>52.84657209718697</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.16993797477588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7221960176495</v>
+        <v>33.56907679556623</v>
       </c>
       <c r="K41" t="n">
         <v>235.2280993679289</v>
       </c>
       <c r="L41" t="n">
-        <v>289.4744702703046</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M41" t="n">
-        <v>137.9064483450448</v>
+        <v>83.55147896784158</v>
       </c>
       <c r="N41" t="n">
         <v>318.590459853373</v>
       </c>
       <c r="O41" t="n">
-        <v>36.3633379842375</v>
+        <v>276.961920122005</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>227.0403421194284</v>
       </c>
       <c r="Q41" t="n">
         <v>152.0386142083903</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38701225037785</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.32463084585931</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.17938957609542</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37917,13 +37917,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>95.41593188705679</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>8.941043799675993</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>104.3569756867328</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.7221960176495</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>235.2280993679289</v>
       </c>
       <c r="L44" t="n">
         <v>289.4744702703046</v>
       </c>
       <c r="M44" t="n">
-        <v>324.1500611056091</v>
+        <v>83.55147896784158</v>
       </c>
       <c r="N44" t="n">
-        <v>77.9918777156056</v>
+        <v>318.590459853373</v>
       </c>
       <c r="O44" t="n">
-        <v>276.9528914734498</v>
+        <v>276.961920122005</v>
       </c>
       <c r="P44" t="n">
-        <v>227.0403421194285</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.0386142083904</v>
+        <v>7.327254967968068</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38701225037786</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.17938957609542</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.26828800158322</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L45" t="n">
-        <v>119.757162594146</v>
+        <v>119.7571625941459</v>
       </c>
       <c r="M45" t="n">
-        <v>184.9576916997118</v>
+        <v>184.9576916997117</v>
       </c>
       <c r="N45" t="n">
-        <v>208.4589204976691</v>
+        <v>208.458920497669</v>
       </c>
       <c r="O45" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P45" t="n">
-        <v>85.55952557398591</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>87.49951025156614</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.3569756867328</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.85746543516666</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
